--- a/media/excel/predatoryjurnal_abv.xlsx
+++ b/media/excel/predatoryjurnal_abv.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1302">
-  <si>
-    <t>Academic Exchange Quarterly</t>
-  </si>
-  <si>
-    <t>Academic Res. Rev.</t>
-  </si>
-  <si>
-    <t>Academy Contemporary Res. J.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1299">
+  <si>
+    <t>Acad. Exchange Quarterly</t>
+  </si>
+  <si>
+    <t>Acad. Res. Rev.</t>
+  </si>
+  <si>
+    <t>Acad. Contemporary Res. J.</t>
   </si>
   <si>
     <t>ACME Intellects</t>
@@ -31,7 +31,7 @@
     <t>Acta Gerencia Ciencia</t>
   </si>
   <si>
-    <t>Acta Advances Agricultural Sciences</t>
+    <t>Acta Adv. Agricultural Sci.</t>
   </si>
   <si>
     <t>Acta Kinesiologica</t>
@@ -46,7 +46,7 @@
     <t>Acta Velit</t>
   </si>
   <si>
-    <t>The Advance Journals Eng. Math. Comput. Sciences</t>
+    <t>The Advance Journals Eng. Math. Comput. Sci.</t>
   </si>
   <si>
     <t>Advance Res. J. Multidisciplinary Discoveries</t>
@@ -55,22 +55,22 @@
     <t>The Adv. Sci. J.</t>
   </si>
   <si>
-    <t>Advances Aerosp. Sci. Technol.</t>
-  </si>
-  <si>
-    <t>Advances Biomedicine Pharmacy</t>
-  </si>
-  <si>
-    <t>Advances Forestry Letter</t>
-  </si>
-  <si>
-    <t>Advances Science, Technol. Eng. Syst. J.</t>
-  </si>
-  <si>
-    <t>Afrasian J. Humanities Social Sciences</t>
-  </si>
-  <si>
-    <t>African J. Traditional, Complementary Alternative Medicines</t>
+    <t>Adv. Aerosp. Sci. Technol.</t>
+  </si>
+  <si>
+    <t>Adv. Biomedicine Pharmacy</t>
+  </si>
+  <si>
+    <t>Adv. Forestry Letter</t>
+  </si>
+  <si>
+    <t>Adv. Science, Technol. Eng. Syst. J.</t>
+  </si>
+  <si>
+    <t>Afrasian J. Humanities Social Sci.</t>
+  </si>
+  <si>
+    <t>African J. Traditional, Complementary Altern. Medicines</t>
   </si>
   <si>
     <t>Aging</t>
@@ -79,7 +79,7 @@
     <t>Ahead Int. J. Recent Res. Rev.</t>
   </si>
   <si>
-    <t>Al Ameen J. Medical Sciences</t>
+    <t>Al Ameen J. Med. Sci.</t>
   </si>
   <si>
     <t>Aloy J. Soft Comput. Applications</t>
@@ -103,10 +103,10 @@
     <t>American J. Adv. Scientific Res.</t>
   </si>
   <si>
-    <t>American J. Advances Medical Sci.</t>
-  </si>
-  <si>
-    <t>American J. Biotechnology Medical Res.</t>
+    <t>American J. Adv. Med. Sci.</t>
+  </si>
+  <si>
+    <t>American J. Biotechnology Med. Res.</t>
   </si>
   <si>
     <t>American J. Eng. Res.</t>
@@ -115,7 +115,7 @@
     <t>American J. Essential Oils Natural Products</t>
   </si>
   <si>
-    <t>American J. Innov. Res. Appl. Sciences</t>
+    <t>American J. Innov. Res. Appl. Sci.</t>
   </si>
   <si>
     <t>American J. Pharmacy Health Res.</t>
@@ -124,10 +124,10 @@
     <t>American J. PharmTech Res.</t>
   </si>
   <si>
-    <t>American J. Phytomedicine Clinical Therapeutics</t>
-  </si>
-  <si>
-    <t>American J. Res. Communication</t>
+    <t>American J. Phytomedicine Clin. Therapeutics</t>
+  </si>
+  <si>
+    <t>American J. Res. Commun.</t>
   </si>
   <si>
     <t>American J. Scientific Res.</t>
@@ -139,28 +139,28 @@
     <t>American Res. Thoughts</t>
   </si>
   <si>
-    <t>American Scientific Res. J. Engineering, Technology, Sciences</t>
-  </si>
-  <si>
-    <t>American Trans. Eng. &amp; Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Anglisticum: Int. J. Literature, Linguistics &amp; Interdisciplinary Studies</t>
+    <t>American Scientific Res. J. Engineering, Technology, Sci.</t>
+  </si>
+  <si>
+    <t>American Trans. Eng. &amp; Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Anglisticum: Int. J. Literature, Linguistics &amp; Interdisciplinary Stud.</t>
   </si>
   <si>
     <t>The Ann. EURASIAN MEDICINE</t>
   </si>
   <si>
-    <t>Ann. British Medical Sciences</t>
-  </si>
-  <si>
-    <t>Ann. Clinical Case Rep.</t>
-  </si>
-  <si>
-    <t>Ann. Int. Medical Dental Res.</t>
-  </si>
-  <si>
-    <t>Ann. Medical Biomed. Sciences</t>
+    <t>Ann. British Med. Sci.</t>
+  </si>
+  <si>
+    <t>Ann. Clin. Case Rep.</t>
+  </si>
+  <si>
+    <t>Ann. Int. Med. Dental Res.</t>
+  </si>
+  <si>
+    <t>Ann. Med. Biomed. Sci.</t>
   </si>
   <si>
     <t>Ann. Phytomedicine</t>
@@ -169,13 +169,13 @@
     <t>Appl. Res. J.</t>
   </si>
   <si>
-    <t>Arch. Des Sciences J.</t>
-  </si>
-  <si>
-    <t>Arch. Clinical Experimental Surgery</t>
-  </si>
-  <si>
-    <t>ARNACA American J. Advances Medical Sci.</t>
+    <t>Arch. Des Sci. J.</t>
+  </si>
+  <si>
+    <t>Arch. Clin. Exp. Surgery</t>
+  </si>
+  <si>
+    <t>ARNACA American J. Adv. Med. Sci.</t>
   </si>
   <si>
     <t>ARPN J. Sci. Technol.</t>
@@ -184,7 +184,7 @@
     <t>ARPN J. Syst. Softw.</t>
   </si>
   <si>
-    <t>Asia Pacific J. Education, Arts Sciences</t>
+    <t>Asia Pacific J. Education, Arts Sci.</t>
   </si>
   <si>
     <t>Asia Pacific J. Multidisciplinary Res.</t>
@@ -202,28 +202,28 @@
     <t>Asian J. Appl. Sci. Eng.</t>
   </si>
   <si>
-    <t>Asian J. Biomed. Pharmaceutical Sciences</t>
+    <t>Asian J. Biomed. Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Asian J. Chem.</t>
   </si>
   <si>
-    <t>Asian J. Health Medical Sciences</t>
-  </si>
-  <si>
-    <t>Asian J. Humanities Social Sciences</t>
-  </si>
-  <si>
-    <t>Asian J. Business Manage. Sciences</t>
+    <t>Asian J. Health Med. Sci.</t>
+  </si>
+  <si>
+    <t>Asian J. Humanities Social Sci.</t>
+  </si>
+  <si>
+    <t>Asian J. Bus. Manage. Sci.</t>
   </si>
   <si>
     <t>Asian J. Math. Applications</t>
   </si>
   <si>
-    <t>Asian J. Multidisciplinary Studies</t>
-  </si>
-  <si>
-    <t>Asian J. Pharmaceutical Health Sciences</t>
+    <t>Asian J. Multidisciplinary Stud.</t>
+  </si>
+  <si>
+    <t>Asian J. Pharmaceutical Health Sci.</t>
   </si>
   <si>
     <t>Asian J. Pharmacy Life Sci.</t>
@@ -235,34 +235,34 @@
     <t>Asian J. Sci. Technol.</t>
   </si>
   <si>
-    <t>Asian Pacific J. Health Sciences</t>
+    <t>Asian Pacific J. Health Sci.</t>
   </si>
   <si>
     <t>Asian Pacific J. Tropical Dis.</t>
   </si>
   <si>
-    <t>Asian Res. J. Business Manage.</t>
+    <t>Asian Res. J. Bus. Manage.</t>
   </si>
   <si>
     <t>Australasian J. Herpetology</t>
   </si>
   <si>
-    <t>Australasian Medical J.</t>
-  </si>
-  <si>
-    <t>Australian J. Basic Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Australian J. Business Manage. Res.</t>
-  </si>
-  <si>
-    <t>Astronomical Rev.</t>
-  </si>
-  <si>
-    <t>Averroes European Medical J.</t>
-  </si>
-  <si>
-    <t>Ayupharm: Int. J. Ayurveda Allied Sciences</t>
+    <t>Australasian Med. J.</t>
+  </si>
+  <si>
+    <t>Australian J. Basic Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Australian J. Bus. Manage. Res.</t>
+  </si>
+  <si>
+    <t>Astr. Rev.</t>
+  </si>
+  <si>
+    <t>Averroes Eur. Med. J.</t>
+  </si>
+  <si>
+    <t>Ayupharm: Int. J. Ayurveda Allied Sci.</t>
   </si>
   <si>
     <t>Ayushdhar</t>
@@ -316,19 +316,19 @@
     <t>Biotechnological Res.</t>
   </si>
   <si>
-    <t>Botany J.</t>
+    <t>Bot. J.</t>
   </si>
   <si>
     <t>British Biomed. Bulletin</t>
   </si>
   <si>
-    <t>British J. Economics, Finance Manage. Sciences</t>
-  </si>
-  <si>
-    <t>British J. Interdisciplinary Studies</t>
-  </si>
-  <si>
-    <t>British J. Medical Health Res.</t>
+    <t>British J. Economics, Financ. Manage. Sci.</t>
+  </si>
+  <si>
+    <t>British J. Interdisciplinary Stud.</t>
+  </si>
+  <si>
+    <t>British J. Med. Health Res.</t>
   </si>
   <si>
     <t>British J. Sci.</t>
@@ -340,10 +340,10 @@
     <t>Bulletin Appl. Res. Sci.</t>
   </si>
   <si>
-    <t>Bulletin Environment, Pharmacology Life Sciences</t>
-  </si>
-  <si>
-    <t>Bulletin Math. Sciences &amp; Applications</t>
+    <t>Bulletin Environment, Pharmacology Life Sci.</t>
+  </si>
+  <si>
+    <t>Bulletin Math. Sci. &amp; Applications</t>
   </si>
   <si>
     <t>Bulletin Pharmaceutical Res.</t>
@@ -352,10 +352,10 @@
     <t>Bulletin Society Math. Services Standards</t>
   </si>
   <si>
-    <t>Business Econ. J.</t>
-  </si>
-  <si>
-    <t>The Business Review, Cambridge</t>
+    <t>Bus. Econ. J.</t>
+  </si>
+  <si>
+    <t>The Bus. Review, Cambridge</t>
   </si>
   <si>
     <t>Calodema</t>
@@ -367,13 +367,13 @@
     <t>Canadian Int. J. Sci. Technol.</t>
   </si>
   <si>
-    <t>Canadian J. Basic Appl. Sciences</t>
+    <t>Canadian J. Basic Appl. Sci.</t>
   </si>
   <si>
     <t>Canadian J. Biotechnology</t>
   </si>
   <si>
-    <t>Canadian J. Pure Appl. Sciences</t>
+    <t>Canadian J. Pure Appl. Sci.</t>
   </si>
   <si>
     <t>Canadian Scientific J.</t>
@@ -394,7 +394,7 @@
     <t>The Caspian Sea J.</t>
   </si>
   <si>
-    <t>Cellular Molecular Biology</t>
+    <t>Cell. Molecular Biology</t>
   </si>
   <si>
     <t>Centrum</t>
@@ -412,13 +412,13 @@
     <t>Clinics Surgery</t>
   </si>
   <si>
-    <t>Columban J. Life Sciences</t>
-  </si>
-  <si>
-    <t>Commun. Appl. Electronics</t>
-  </si>
-  <si>
-    <t>Comput. Res. Progress Appl. Sci. &amp; Eng.</t>
+    <t>Columban J. Life Sci.</t>
+  </si>
+  <si>
+    <t>Commun. Appl. Electron.</t>
+  </si>
+  <si>
+    <t>Comput. Res. Prog. Appl. Sci. &amp; Eng.</t>
   </si>
   <si>
     <t>Comput. Sci. Chronicle</t>
@@ -442,13 +442,13 @@
     <t>Current Biotica</t>
   </si>
   <si>
-    <t>Current Botany</t>
+    <t>Current Bot.</t>
   </si>
   <si>
     <t>Current Discovery</t>
   </si>
   <si>
-    <t>Current Trends Technol. Sciences</t>
+    <t>Current Trends Technol. Sci.</t>
   </si>
   <si>
     <t>DAV Int. J. Sci.</t>
@@ -466,13 +466,13 @@
     <t>Diyala J. Pure Sci.</t>
   </si>
   <si>
-    <t>East European Sci. J.</t>
-  </si>
-  <si>
-    <t>Eastern Academic J.</t>
-  </si>
-  <si>
-    <t>Eastern European Scientific J.</t>
+    <t>East Eur. Sci. J.</t>
+  </si>
+  <si>
+    <t>Eastern Acad. J.</t>
+  </si>
+  <si>
+    <t>Eastern Eur. Scientific J.</t>
   </si>
   <si>
     <t>E-Library Sci. Res. J.</t>
@@ -523,85 +523,85 @@
     <t>ESSENCE: Int. J. Environ. Rehabilitation Conservation</t>
   </si>
   <si>
-    <t>Euro-Afro J. Arts Social Sciences</t>
-  </si>
-  <si>
-    <t>European Academic Res.</t>
-  </si>
-  <si>
-    <t>European Chem. Bulletin</t>
-  </si>
-  <si>
-    <t>European Environ. Sciences Ecology J.</t>
-  </si>
-  <si>
-    <t>European Int. J. Sci. Humanities</t>
-  </si>
-  <si>
-    <t>European Int. J. Sci. Technol.</t>
-  </si>
-  <si>
-    <t>European J. Academic Essays</t>
-  </si>
-  <si>
-    <t>European J. Adv. Comput. Sci.</t>
-  </si>
-  <si>
-    <t>European J. Advances Eng. &amp; Technol.</t>
-  </si>
-  <si>
-    <t>European J. Biomed. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>European J. Biotechnology Bioscience</t>
-  </si>
-  <si>
-    <t>European J. Business Social Sciences</t>
-  </si>
-  <si>
-    <t>European J. Chem.</t>
-  </si>
-  <si>
-    <t>European J. Contemporary Econ. Manage.</t>
-  </si>
-  <si>
-    <t>European J. Economics, Finance Administrative Sciences</t>
-  </si>
-  <si>
-    <t>European J. Educational Res.</t>
-  </si>
-  <si>
-    <t>European J. Educational Sciences</t>
-  </si>
-  <si>
-    <t>European J. Eng. Res. Sci.</t>
-  </si>
-  <si>
-    <t>European J. Natural History</t>
-  </si>
-  <si>
-    <t>European J. Pharmaceutical Medical Res.</t>
-  </si>
-  <si>
-    <t>European J. Sci. Theology</t>
-  </si>
-  <si>
-    <t>European J. Scientific Res.</t>
-  </si>
-  <si>
-    <t>European J. Social Sciences</t>
-  </si>
-  <si>
-    <t>European J. Sustainable Develop.</t>
-  </si>
-  <si>
-    <t>European Law Politics J.</t>
-  </si>
-  <si>
-    <t>European Online J. Natural Social Sciences</t>
-  </si>
-  <si>
-    <t>European Scientific J.</t>
+    <t>Euro-Afro J. Arts Social Sci.</t>
+  </si>
+  <si>
+    <t>Eur. Acad. Res.</t>
+  </si>
+  <si>
+    <t>Eur. Chem. Bulletin</t>
+  </si>
+  <si>
+    <t>Eur. Environ. Sci. Ecol. J.</t>
+  </si>
+  <si>
+    <t>Eur. Int. J. Sci. Humanities</t>
+  </si>
+  <si>
+    <t>Eur. Int. J. Sci. Technol.</t>
+  </si>
+  <si>
+    <t>Eur. J. Acad. Essays</t>
+  </si>
+  <si>
+    <t>Eur. J. Adv. Comput. Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Adv. Eng. &amp; Technol.</t>
+  </si>
+  <si>
+    <t>Eur. J. Biomed. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Biotechnology Bioscience</t>
+  </si>
+  <si>
+    <t>Eur. J. Bus. Social Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Chem.</t>
+  </si>
+  <si>
+    <t>Eur. J. Contemporary Econ. Manage.</t>
+  </si>
+  <si>
+    <t>Eur. J. Economics, Financ. Administrative Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Educ. Res.</t>
+  </si>
+  <si>
+    <t>Eur. J. Educ. Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Eng. Res. Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Natural History</t>
+  </si>
+  <si>
+    <t>Eur. J. Pharmaceutical Med. Res.</t>
+  </si>
+  <si>
+    <t>Eur. J. Sci. Theology</t>
+  </si>
+  <si>
+    <t>Eur. J. Scientific Res.</t>
+  </si>
+  <si>
+    <t>Eur. J. Social Sci.</t>
+  </si>
+  <si>
+    <t>Eur. J. Sustainable Develop.</t>
+  </si>
+  <si>
+    <t>Eur. Law Politics J.</t>
+  </si>
+  <si>
+    <t>Eur. Online J. Natural Social Sci.</t>
+  </si>
+  <si>
+    <t>Eur. Scientific J.</t>
   </si>
   <si>
     <t>The Experiment</t>
@@ -610,7 +610,7 @@
     <t>First Independent Scientific J.</t>
   </si>
   <si>
-    <t>FLUIDS: Int. J. Medical Fluid Manage.</t>
+    <t>FLUIDS: Int. J. Med. Fluid Manage.</t>
   </si>
   <si>
     <t>Food Biology</t>
@@ -646,25 +646,25 @@
     <t>Geodynamics Res. Int. Bulletin</t>
   </si>
   <si>
-    <t>Global Business &amp; Finance Rev.</t>
+    <t>Global Bus. &amp; Financ. Rev.</t>
   </si>
   <si>
     <t>Global J. Res. Analysis</t>
   </si>
   <si>
-    <t>Global J. Adv. Eng. Technologies Sciences</t>
+    <t>Global J. Adv. Eng. Technol. Sci.</t>
   </si>
   <si>
     <t>Global J. Adv. Res.</t>
   </si>
   <si>
-    <t>Global J. Animal Scientific Res.</t>
-  </si>
-  <si>
-    <t>Global J. Business Social Sci.</t>
-  </si>
-  <si>
-    <t>Global J. Business Social Sci. Rev.</t>
+    <t>Global J. Anim. Scientific Res.</t>
+  </si>
+  <si>
+    <t>Global J. Bus. Social Sci.</t>
+  </si>
+  <si>
+    <t>Global J. Bus. Social Sci. Rev.</t>
   </si>
   <si>
     <t>Global J. Eng. Sci. Res. Manage.</t>
@@ -673,13 +673,13 @@
     <t>Global J. Manage. Sci. Technol.</t>
   </si>
   <si>
-    <t>Global J. Medical Health Sciences</t>
+    <t>Global J. Med. Health Sci.</t>
   </si>
   <si>
     <t>Global J. Med. Public Health</t>
   </si>
   <si>
-    <t>Global J. Multidisciplinary Studies</t>
+    <t>Global J. Multidisciplinary Stud.</t>
   </si>
   <si>
     <t>Global Media J.</t>
@@ -709,28 +709,28 @@
     <t>Ideal J. Arts Humanities</t>
   </si>
   <si>
-    <t>Ideal J. Eng. Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Ideal J. Econ. Manage. Sciences</t>
-  </si>
-  <si>
-    <t>Ideal J. Pure Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Ideal J. Educ. Policy Studies</t>
-  </si>
-  <si>
-    <t>Ideal J. Psychology Theology</t>
+    <t>Ideal J. Eng. Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Ideal J. Econ. Manage. Sci.</t>
+  </si>
+  <si>
+    <t>Ideal J. Pure Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Ideal J. Educ. Policy Stud.</t>
+  </si>
+  <si>
+    <t>Ideal J. Psychol. Theology</t>
   </si>
   <si>
     <t>Indian J. Adv. Nursing</t>
   </si>
   <si>
-    <t>Indian J. Advances Chem. Sci.</t>
-  </si>
-  <si>
-    <t>Indian J. Applied-Basic Medical Sciences</t>
+    <t>Indian J. Adv. Chem. Sci.</t>
+  </si>
+  <si>
+    <t>Indian J. Applied-Basic Med. Sci.</t>
   </si>
   <si>
     <t>Indian J. Appl. Res.</t>
@@ -739,10 +739,10 @@
     <t>Indian J. Drugs</t>
   </si>
   <si>
-    <t>Indian J. Medical Res. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>Indian J. Natural Sciences</t>
+    <t>Indian J. Med. Res. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Indian J. Natural Sci.</t>
   </si>
   <si>
     <t>Indian J. Pharmaceutical Biol. Res.</t>
@@ -775,10 +775,10 @@
     <t>Indo American J. Pharmaceutical Res.</t>
   </si>
   <si>
-    <t>Indo American J. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>Indo-Global J. Pharmaceutical Sciences</t>
+    <t>Indo American J. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Indo-Global J. Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Ind. Sci. J.</t>
@@ -790,16 +790,16 @@
     <t>Innovations Pharmaceuticals Pharmacotherapy</t>
   </si>
   <si>
-    <t>Institute Electrical &amp; Electronics Engineers Adv. J.</t>
+    <t>Institute Electr. &amp; Electron. Engineers Adv. J.</t>
   </si>
   <si>
     <t>Integrated J. British</t>
   </si>
   <si>
-    <t>Interdisciplinary J. Contemporary Res. Business</t>
-  </si>
-  <si>
-    <t>Interdisciplinary J. Res. Business</t>
+    <t>Interdisciplinary J. Contemporary Res. Bus.</t>
+  </si>
+  <si>
+    <t>Interdisciplinary J. Res. Bus.</t>
   </si>
   <si>
     <t>Interdisciplinary Toxicology</t>
@@ -811,13 +811,13 @@
     <t>Int. Adv. Res. J. Science, Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. Arch. BioMedical Clinical Res.</t>
+    <t>Int. Arch. BioMedical Clin. Res.</t>
   </si>
   <si>
     <t>Int. Arch. Med.</t>
   </si>
   <si>
-    <t>Int. Ayurvedic Medical J.</t>
+    <t>Int. Ayurvedic Med. J.</t>
   </si>
   <si>
     <t>The Int. Asian Res. J.</t>
@@ -826,7 +826,7 @@
     <t>Int. Biology Rev.</t>
   </si>
   <si>
-    <t>Int. Bulletin Business Administration</t>
+    <t>Int. Bulletin Bus. Administration</t>
   </si>
   <si>
     <t>Int. Cardiovascular Forum</t>
@@ -844,10 +844,10 @@
     <t>Int. Educ. Res. J.</t>
   </si>
   <si>
-    <t>Int. Educational E-Journal</t>
-  </si>
-  <si>
-    <t>Int. Educational Scientific Res. J.</t>
+    <t>Int. Educ. E-Journal</t>
+  </si>
+  <si>
+    <t>Int. Educ. Scientific Res. J.</t>
   </si>
   <si>
     <t>The Int. Interdisciplinary J. Educ.</t>
@@ -859,7 +859,7 @@
     <t>Int. J. &amp; Magazine Engineering, Technology, Manage. Res.</t>
   </si>
   <si>
-    <t>Int. J. Advances Social Sci. Humanities</t>
+    <t>Int. J. Adv. Social Sci. Humanities</t>
   </si>
   <si>
     <t>Int. J. Bulletin Multidisciplinary Res.</t>
@@ -907,10 +907,10 @@
     <t>Int. J. Abdominal Res.</t>
   </si>
   <si>
-    <t>Int. J. Academic Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Academic Studies</t>
+    <t>Int. J. Acad. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Acad. Stud.</t>
   </si>
   <si>
     <t>Int. J. Advance Comput. Techniques Applications</t>
@@ -934,16 +934,16 @@
     <t>Int. J. Advance Research, Ideas Innovations Technol.</t>
   </si>
   <si>
-    <t>Int. J. Advance Res. Comput. Sci. And Manage. Studies</t>
+    <t>Int. J. Advance Res. Comput. Sci. And Manage. Stud.</t>
   </si>
   <si>
     <t>Int. J. Advance Res. Sci. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Academic Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Adv. Appl. Sciences</t>
+    <t>Int. J. Adv. Acad. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Appl. Sci.</t>
   </si>
   <si>
     <t>Int. J. Adv. Innov. Res.</t>
@@ -985,7 +985,7 @@
     <t>Int. J. Adv. Inf. Sci. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Life Sciences</t>
+    <t>Int. J. Adv. Life Sci.</t>
   </si>
   <si>
     <t>Int. J. Adv. Multidisciplinary Res.</t>
@@ -1003,16 +1003,16 @@
     <t>Int. J. Adv. Res. Appl. Sci. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Res. Biol. Sciences</t>
+    <t>Int. J. Adv. Res. Biol. Sci.</t>
   </si>
   <si>
     <t>Int. J. Adv. Res. Biology, Ecology, Sci. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Res. Comput. Communication Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Adv. Res. Comput. Sci. Electronics Eng.</t>
+    <t>Int. J. Adv. Res. Comput. Commun. Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Res. Comput. Sci. Electron. Eng.</t>
   </si>
   <si>
     <t>Int. J. Adv. Res. Comput. Sci. Softw. Eng.</t>
@@ -1024,7 +1024,7 @@
     <t>Int. J. Adv. Res. Educ. &amp; Technol.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Res. Electrical, Electronics Instrumentation Eng.</t>
+    <t>Int. J. Adv. Res. Electrical, Electron. Instrumentation Eng.</t>
   </si>
   <si>
     <t>Int. J. Adv. Res. Eng. &amp; Manage.</t>
@@ -1066,46 +1066,46 @@
     <t>Int. J. Advancement Eng. Technology, Manage. &amp; Appl. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Advancements Mechanical Aeronautical Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Advancements Res. &amp; Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Appl. Math. Mechanics</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Eng. &amp; Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Interdisciplinary Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Manage. Econ.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Management, Econ. Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Math.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Pharmaceutical Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Advances Power Syst.</t>
-  </si>
-  <si>
-    <t>Int. J. Advent Res. Comput. Electronics</t>
+    <t>Int. J. Adv. Mechanical Aeronautical Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Res. &amp; Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Appl. Math. Mechanics</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Eng. &amp; Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Interdisciplinary Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Manage. Econ.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Management, Econ. Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Math.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Pharmaceutical Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Adv. Power Syst.</t>
+  </si>
+  <si>
+    <t>Int. J. Advent Res. Comput. Electron.</t>
   </si>
   <si>
     <t>Int. J. Aerosp. Mechanical Eng.</t>
   </si>
   <si>
-    <t>Int. J. Agriculture Crop Sciences</t>
+    <t>Int. J. Agriculture Crop Sci.</t>
   </si>
   <si>
     <t>Int. J. Agriculture Environ. Res.</t>
@@ -1117,7 +1117,7 @@
     <t>Int. J. Agricultural, Forestry &amp; Plantation</t>
   </si>
   <si>
-    <t>Int. J. Agricultural Sciences Veterinary Med.</t>
+    <t>Int. J. Agricultural Sci. Veterinary Med.</t>
   </si>
   <si>
     <t>Int. J. Agronomy &amp; Plant Production</t>
@@ -1135,28 +1135,28 @@
     <t>Int. J. Appl. Biology Pharmaceutical Technol.</t>
   </si>
   <si>
-    <t>Int. J. Appl. Dental Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Appl. Econ. Studies</t>
+    <t>Int. J. Appl. Dental Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Appl. Econ. Stud.</t>
   </si>
   <si>
     <t>Int. J. Appl. Inf. Syst.</t>
   </si>
   <si>
-    <t>Int. J. Appl. Linguistics &amp; English Literature</t>
+    <t>Int. J. Appl. Linguistics &amp; English Lit.</t>
   </si>
   <si>
     <t>Int. J. Appl. Pharmaceutical &amp; Biol. Res.</t>
   </si>
   <si>
-    <t>Int. J. Appl. Pharmaceutical Sciences Biol. Sciences</t>
+    <t>Int. J. Appl. Pharmaceutical Sci. Biol. Sci.</t>
   </si>
   <si>
     <t>Int. J. Appl. Res.</t>
   </si>
   <si>
-    <t>Int. J. Appl. Res. &amp; Studies</t>
+    <t>Int. J. Appl. Res. &amp; Stud.</t>
   </si>
   <si>
     <t>Int. J. Appl. Res. Natural Products</t>
@@ -1165,16 +1165,16 @@
     <t>Int. J. Appl. Sci. Eng. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Appl. Sciences Biotechnology</t>
-  </si>
-  <si>
-    <t>Int. J. Appl. Sciences Eng.</t>
+    <t>Int. J. Appl. Sci. Biotechnology</t>
+  </si>
+  <si>
+    <t>Int. J. Appl. Sci. Eng.</t>
   </si>
   <si>
     <t>Int. J. Architecture, Civil Eng. Urban Des.</t>
   </si>
   <si>
-    <t>Int. J. Artificial Intell. Mechatronics</t>
+    <t>Int. J. Artif. Intell. Mechatronics</t>
   </si>
   <si>
     <t>Int. J. Art Humanity Sci.</t>
@@ -1186,10 +1186,10 @@
     <t>Int. J. Arts Entrepreneurship</t>
   </si>
   <si>
-    <t>Int. J. Arts, Humanities Manage. Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Arts Humanities Social Sciences</t>
+    <t>Int. J. Arts, Humanities Manage. Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Arts Humanities Social Sci.</t>
   </si>
   <si>
     <t>Int. J. Ayurveda Pharma Res.</t>
@@ -1201,13 +1201,13 @@
     <t>Int. J. Basic Appl. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Basic Medical Sciences Pharmacy</t>
-  </si>
-  <si>
-    <t>Int. J. Basic Sciences Appl. Comput.</t>
-  </si>
-  <si>
-    <t>Int. J. Basic Sciences Appl. Res.</t>
+    <t>Int. J. Basic Med. Sci. Pharmacy</t>
+  </si>
+  <si>
+    <t>Int. J. Basic Sci. Appl. Comput.</t>
+  </si>
+  <si>
+    <t>Int. J. Basic Sci. Appl. Res.</t>
   </si>
   <si>
     <t>Int. J. Bio</t>
@@ -1219,10 +1219,10 @@
     <t>Int. J. Biol. &amp; Pharmaceutical Res.</t>
   </si>
   <si>
-    <t>Int. J. Biol. Chem. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Biology, Pharmacy Allied Sciences</t>
+    <t>Int. J. Biol. Chem. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Biology, Pharmacy Allied Sci.</t>
   </si>
   <si>
     <t>Int. J. Biomed. Sci.</t>
@@ -1231,55 +1231,55 @@
     <t>Int. J. Biosciences Nanosciences</t>
   </si>
   <si>
-    <t>Int. J. Business Administration Res. Rev.</t>
-  </si>
-  <si>
-    <t>Int. J. Business Commerce</t>
-  </si>
-  <si>
-    <t>The Int. J. Business &amp; Manage.</t>
-  </si>
-  <si>
-    <t>Int. J. Business Manage. Invention</t>
-  </si>
-  <si>
-    <t>Int. J. Business Social Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Business Manage. Econ. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Business Manage. Econ. Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Business Marketing Manage.</t>
-  </si>
-  <si>
-    <t>Int. J. Business Quantitative Econ. Appl. Manage. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Business Tourism &amp; Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Case Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Chem. Pharmaceutical Sciences</t>
+    <t>Int. J. Bus. Administration Res. Rev.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Commerce</t>
+  </si>
+  <si>
+    <t>The Int. J. Bus. &amp; Manage.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Manage. Invention</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Social Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Manage. Econ. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Manage. Econ. Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Mar. Manage.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Quantitative Econ. Appl. Manage. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Bus. Tourism &amp; Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Case Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Chem. Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Int. J. Chem. Sci. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Chem. Studies</t>
+    <t>Int. J. Chem. Stud.</t>
   </si>
   <si>
     <t>Int. J. Civil, Mechanical Energy Sci.</t>
   </si>
   <si>
-    <t>Int. J. Clinical Diagnostic Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Clinical Cases Investigations</t>
+    <t>Int. J. Clin. Diagnostic Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Clin. Cases Investigations</t>
   </si>
   <si>
     <t>Int. J. Collaborative Res. Internal Med. &amp; Public Health</t>
@@ -1288,16 +1288,16 @@
     <t>Int. J. Commerce Manage. Res.</t>
   </si>
   <si>
-    <t>Int. J. Communication Health</t>
-  </si>
-  <si>
-    <t>Int. J. Communication Networks Inf. Security</t>
-  </si>
-  <si>
-    <t>Int. J. Comprehensive Res. Biol. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. Appl. Sciences</t>
+    <t>Int. J. Commun. Health</t>
+  </si>
+  <si>
+    <t>Int. J. Commun. Networks Inf. Security</t>
+  </si>
+  <si>
+    <t>Int. J. Comprehensive Res. Biol. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. Appl. Sci.</t>
   </si>
   <si>
     <t>Int. J. Comput. Eng. Res.</t>
@@ -1306,10 +1306,10 @@
     <t>Int. J. Comput. Science, Math. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Comput. &amp; Electronics Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. &amp; Communication Eng. Res.</t>
+    <t>Int. J. Comput. &amp; Electron. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. &amp; Commun. Eng. Res.</t>
   </si>
   <si>
     <t>Int. J. Comput. Inf. Technol.</t>
@@ -1321,7 +1321,7 @@
     <t>Int. J. Comput. Appl. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Comput. Applications Eng. Sciences</t>
+    <t>Int. J. Comput. Applications Eng. Sci.</t>
   </si>
   <si>
     <t>Int. J. Comput. Applications Technol. Res.</t>
@@ -1339,19 +1339,19 @@
     <t>Int. J. Comput. Networks Commun. Security</t>
   </si>
   <si>
-    <t>Int. J. Comput. Sci. &amp; Communication Security</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. Sci. Business Inform.</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. Sci. Communication Networks</t>
+    <t>Int. J. Comput. Sci. &amp; Commun. Security</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. Sci. Bus. Inform.</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. Sci. Commun. Networks</t>
   </si>
   <si>
     <t>Int. J. Comput. Sci. Inf. Security</t>
   </si>
   <si>
-    <t>Int. J. Comput. Sci. Inf. Technologies</t>
+    <t>Int. J. Comput. Sci. Inf. Technol.</t>
   </si>
   <si>
     <t>Int. J. Comput. Sci. Mobile Comput.</t>
@@ -1393,25 +1393,22 @@
     <t>Int. J. Comput. Technol. Applications</t>
   </si>
   <si>
-    <t>Int. J. Comput. Technol. Electronics Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. Academic Res.</t>
+    <t>Int. J. Comput. Technol. Electron. Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. Acad. Res.</t>
   </si>
   <si>
     <t>Int. J. Comput. Corporate Res.</t>
   </si>
   <si>
-    <t>Int. J. Comput. Sci. Inf. Technol.</t>
-  </si>
-  <si>
     <t>Int. J. Conf. Proc.</t>
   </si>
   <si>
-    <t>Int. J. Contemporary Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Contemporary Medical Res.</t>
+    <t>Int. J. Contemporary Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Contemporary Med. Res.</t>
   </si>
   <si>
     <t>Int. J. Contemporary Res. Rev.</t>
@@ -1423,28 +1420,28 @@
     <t>Int. J. Current Adv. Res.</t>
   </si>
   <si>
-    <t>Int. J. Current Agricultural Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Current Business Social Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Current Eng. Sciences</t>
+    <t>Int. J. Current Agricultural Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Current Bus. Social Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Current Eng. Sci.</t>
   </si>
   <si>
     <t>Int. J. Current Innovation Res.</t>
   </si>
   <si>
-    <t>Int. J. Current Medical Pharmaceutical Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Medical Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Current Microbiology Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Current Multidisciplinary Studies</t>
+    <t>Int. J. Current Med. Pharmaceutical Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Current Med. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Current Microbiology Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Current Multidisciplinary Stud.</t>
   </si>
   <si>
     <t>Int. J. Current Pharmaceutical Rev. Res.</t>
@@ -1453,16 +1450,16 @@
     <t>Int. J. Current Res.</t>
   </si>
   <si>
-    <t>Int. J. Current Res. Academic Rev.</t>
+    <t>Int. J. Current Res. Acad. Rev.</t>
   </si>
   <si>
     <t>Int. J. Current Res. Rev.</t>
   </si>
   <si>
-    <t>Int. J. Current Res. Chem. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res. Life Sciences</t>
+    <t>Int. J. Current Res. Chem. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Current Res. Life Sci.</t>
   </si>
   <si>
     <t>Int. J. Current Res. Multidisciplinary</t>
@@ -1474,7 +1471,7 @@
     <t>Int. J. Current Sci. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Dental Health Sciences</t>
+    <t>Int. J. Dental Health Sci.</t>
   </si>
   <si>
     <t>Int. J. Dermatopathology Surgery</t>
@@ -1486,7 +1483,7 @@
     <t>Int. J. Develop. Res.</t>
   </si>
   <si>
-    <t>Int. J. Digit. Communication Networks</t>
+    <t>Int. J. Digit. Commun. Networks</t>
   </si>
   <si>
     <t>Int. J. Digit. Library Services</t>
@@ -1498,7 +1495,7 @@
     <t>Int. J. E-Computer Sci. Evolution</t>
   </si>
   <si>
-    <t>Int. J. Econ. Finance</t>
+    <t>Int. J. Econ. Financ.</t>
   </si>
   <si>
     <t>Int. J. Econ. Res.</t>
@@ -1507,13 +1504,13 @@
     <t>Int. J. Economics, Commerce Manage.</t>
   </si>
   <si>
-    <t>Int. J. Economics, Finance Manage.</t>
+    <t>Int. J. Economics, Financ. Manage.</t>
   </si>
   <si>
     <t>Int. J. Educ. Appl. Res.</t>
   </si>
   <si>
-    <t>Int. J. Educ. Psychological Res.</t>
+    <t>Int. J. Educ. Psychol. Res.</t>
   </si>
   <si>
     <t>Int. J. Educ. Res.</t>
@@ -1522,37 +1519,37 @@
     <t>Int. J. Educ. Social Sci.</t>
   </si>
   <si>
-    <t>The Int. J. Educational Psychological Assessment</t>
-  </si>
-  <si>
-    <t>Int. J. Educational Investigations</t>
-  </si>
-  <si>
-    <t>Int. J. Electrical Electronics Engineers</t>
-  </si>
-  <si>
-    <t>Int. J. Electrical, Electronics Computers</t>
-  </si>
-  <si>
-    <t>Int. J. Electrical, Electronics Mechanical Controls</t>
-  </si>
-  <si>
-    <t>Int. J. Electrical Energy</t>
+    <t>The Int. J. Educ. Psychol. Assessment</t>
+  </si>
+  <si>
+    <t>Int. J. Educ. Investigations</t>
+  </si>
+  <si>
+    <t>Int. J. Electr. Electron. Engineers</t>
+  </si>
+  <si>
+    <t>Int. J. Electrical, Electron. Comput.</t>
+  </si>
+  <si>
+    <t>Int. J. Electrical, Electron. Mechanical Controls</t>
+  </si>
+  <si>
+    <t>Int. J. Electr. Energy</t>
   </si>
   <si>
     <t>Int. J. Electrochemical Sci.</t>
   </si>
   <si>
-    <t>Int. J. Electronics &amp; Communication Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Electronics Inf. Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Electronics Communication Comput. Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Electronics Communication Comput. Technol.</t>
+    <t>Int. J. Electron. &amp; Commun. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Electron. Inf. Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Electron. Commun. Comput. Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Electron. Commun. Comput. Technol.</t>
   </si>
   <si>
     <t>Int. J. Emerg. Eng. Res. Technol.</t>
@@ -1564,10 +1561,10 @@
     <t>Int. J. Emerg. Sci. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Emerg. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Emerg. Technologies Innov. Res.</t>
+    <t>Int. J. Emerg. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Emerg. Technol. Innov. Res.</t>
   </si>
   <si>
     <t>Int. J. Emerg. Technol. &amp; Res.</t>
@@ -1576,10 +1573,10 @@
     <t>Int. J. Emerg. Technol. Adv. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Emerg. Trends Electrical Electronics</t>
-  </si>
-  <si>
-    <t>Int. J. Emerg. Trends Pharmaceutical Sciences</t>
+    <t>Int. J. Emerg. Trends Electr. Electron.</t>
+  </si>
+  <si>
+    <t>Int. J. Emerg. Trends Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Int. J. Emerg. Trends Res.</t>
@@ -1603,7 +1600,7 @@
     <t>Int. J. Eng. Adv. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Eng. Appl. Sciences</t>
+    <t>Int. J. Eng. Appl. Sci.</t>
   </si>
   <si>
     <t>Int. J. Eng. Comput. Sci.</t>
@@ -1672,7 +1669,7 @@
     <t>Int. J. Eng. Res. &amp; Technol.</t>
   </si>
   <si>
-    <t>Int. J. Eng. Researches Manage. Studies</t>
+    <t>Int. J. Eng. Researches Manage. Stud.</t>
   </si>
   <si>
     <t>Int. J. Eng. Sci. &amp; Adv. Technol.</t>
@@ -1693,13 +1690,13 @@
     <t>Int. J. Eng. Sci. Invention-Research &amp; Develop.</t>
   </si>
   <si>
-    <t>Int. J. Eng. Sciences &amp; Res. Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Eng. Sciences &amp; Manage.</t>
-  </si>
-  <si>
-    <t>Int. J. Eng. Technologies Manage. Res.</t>
+    <t>Int. J. Eng. Sci. &amp; Res. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Eng. Sci. &amp; Manage.</t>
+  </si>
+  <si>
+    <t>Int. J. Eng. Technol. Manage. Res.</t>
   </si>
   <si>
     <t>Int. J. Eng. Technol. Comput. Res.</t>
@@ -1711,7 +1708,7 @@
     <t>Int. J. Eng. Technol. Scientific Innovation</t>
   </si>
   <si>
-    <t>Int. J. Eng. Technology, Manage. Appl. Sciences</t>
+    <t>Int. J. Eng. Technology, Manage. Appl. Sci.</t>
   </si>
   <si>
     <t>Int. J. Eng. Trends Applications</t>
@@ -1723,19 +1720,19 @@
     <t>Int. J. English Educ.</t>
   </si>
   <si>
-    <t>Int. J. English Language &amp; Translation Studies</t>
-  </si>
-  <si>
-    <t>Int. J. English Language , Literature &amp; Humanities</t>
-  </si>
-  <si>
-    <t>Int. J. English Language, Literature Translation Studies</t>
+    <t>Int. J. English Language &amp; Translation Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. English Language , Lit. &amp; Humanities</t>
+  </si>
+  <si>
+    <t>Int. J. English Language, Lit. Translation Stud.</t>
   </si>
   <si>
     <t>Int. J. English Res.</t>
   </si>
   <si>
-    <t>Int. J. Enterprise Comput. Business Syst.</t>
+    <t>Int. J. Enterprise Comput. Bus. Syst.</t>
   </si>
   <si>
     <t>Int. J. Environment</t>
@@ -1750,19 +1747,19 @@
     <t>Int. J. Environ. Sci. Develop.</t>
   </si>
   <si>
-    <t>Int. J. Farming Allied Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Fauna Biol. Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Fisheries Aquatic Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Food Nutritional Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Fundam. &amp; Appl. Sciences</t>
+    <t>Int. J. Farming Allied Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Fauna Biol. Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Fisheries Aquat. Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Food Nutritional Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Fundam. &amp; Appl. Sci.</t>
   </si>
   <si>
     <t>Int. J. Global Commun.</t>
@@ -1780,10 +1777,10 @@
     <t>Int. J. Health Res.</t>
   </si>
   <si>
-    <t>Int. J. Health Res. Modern Integrated Medical Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Health Sciences Res.</t>
+    <t>Int. J. Health Res. Modern Integrated Med. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Health Sci. Res.</t>
   </si>
   <si>
     <t>Int. J. Herbal Med.</t>
@@ -1792,7 +1789,7 @@
     <t>Int. J. Hindi Res.</t>
   </si>
   <si>
-    <t>Int. J. History, Arts Culture</t>
+    <t>Int. J. History, Arts Cult.</t>
   </si>
   <si>
     <t>Int. J. Home Sci.</t>
@@ -1801,10 +1798,10 @@
     <t>Int. J. Human Resource Procurement</t>
   </si>
   <si>
-    <t>Int. J. Human Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Humanities Cultural Studies</t>
+    <t>Int. J. Human Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Humanities Cult. Stud.</t>
   </si>
   <si>
     <t>Int. J. Humanities Social Sci. Invention</t>
@@ -1813,25 +1810,25 @@
     <t>Int. J. Humanities Social Sci. Res.</t>
   </si>
   <si>
-    <t>The Int. J. Humanities &amp; Social Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Humanities &amp; Social Sciences</t>
+    <t>The Int. J. Humanities &amp; Social Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Humanities &amp; Social Sci.</t>
   </si>
   <si>
     <t>Int. J. Humanities Religion</t>
   </si>
   <si>
-    <t>Int. J. Humanities, Eng. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Indian Psychology</t>
-  </si>
-  <si>
-    <t>Int. J. Inf. Communication Technol. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Inf. Communication Technol. Trends</t>
+    <t>Int. J. Humanities, Eng. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Indian Psychol.</t>
+  </si>
+  <si>
+    <t>Int. J. Inf. Commun. Technol. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Inf. Commun. Technol. Trends</t>
   </si>
   <si>
     <t>Int. J. Inf. Educ. Technol.</t>
@@ -1846,19 +1843,19 @@
     <t>Int. J. Inf. Sources Services: A Res. J. Library Sci.</t>
   </si>
   <si>
-    <t>Int. J. Inf. Technol. &amp; Business Manage.</t>
+    <t>Int. J. Inf. Technol. &amp; Bus. Manage.</t>
   </si>
   <si>
     <t>Int. J. Inf. Technol. &amp; Comput. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Inf. Technol. Electrical Eng.</t>
+    <t>Int. J. Inf. Technol. Electr. Eng.</t>
   </si>
   <si>
     <t>Int. J. Informative Futuristic Res.</t>
   </si>
   <si>
-    <t>Int. J. Innovation Res. Educational Sciences</t>
+    <t>Int. J. Innovation Res. Educ. Sci.</t>
   </si>
   <si>
     <t>Int. J. Innovation Sci. Math.</t>
@@ -1897,7 +1894,7 @@
     <t>Int. J. Innov. Pharmaceutical Res.</t>
   </si>
   <si>
-    <t>Int. J. Innov. Res. &amp; Adv. Studies</t>
+    <t>Int. J. Innov. Res. &amp; Adv. Stud.</t>
   </si>
   <si>
     <t>Int. J. Innov. Res. Creative Technol.</t>
@@ -1906,13 +1903,13 @@
     <t>Int. J. Innov. Res. Develop.</t>
   </si>
   <si>
-    <t>Int. J. Innov. Res. Studies</t>
+    <t>Int. J. Innov. Res. Stud.</t>
   </si>
   <si>
     <t>Int. J. Innov. Res. Adv. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Innov. Res. Comput. Communication Eng.</t>
+    <t>Int. J. Innov. Res. Comput. Commun. Eng.</t>
   </si>
   <si>
     <t>Int. J. Innov. Res. Electrical, Electronics, Instrumentation Control Eng.</t>
@@ -1921,13 +1918,13 @@
     <t>Int. J. Innov. Res. Comput. Sci. &amp; Technol.</t>
   </si>
   <si>
-    <t>Int. J. Innov. Res. Eng. &amp; Multidisciplinary Physical Sciences</t>
+    <t>Int. J. Innov. Res. Eng. &amp; Multidisciplinary Physical Sci.</t>
   </si>
   <si>
     <t>Int. J. Innov. Res. Eng. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Innov. Res. Medical Sci.</t>
+    <t>Int. J. Innov. Res. Med. Sci.</t>
   </si>
   <si>
     <t>Int. J. Innov. Res. Sci. Eng.</t>
@@ -1948,10 +1945,10 @@
     <t>Int. J. Innov. Sci. Modern Eng.</t>
   </si>
   <si>
-    <t>Int. J. Innov. Studies Sciences Eng. Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Innov. Technologies</t>
+    <t>Int. J. Innov. Stud. Sci. Eng. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Innov. Technol.</t>
   </si>
   <si>
     <t>Int. J. Innov. Technol. Explor. Eng.</t>
@@ -1966,22 +1963,22 @@
     <t>Int. J. Integrated Comput. Applications &amp; Res.</t>
   </si>
   <si>
-    <t>Int. J. Integrated Medical Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Interdisciplinary Multidisciplinary Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Interdisciplinary Res. Science, Society Culture</t>
+    <t>Int. J. Integrated Med. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Interdisciplinary Multidisciplinary Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Interdisciplinary Res. Science, Society Cult.</t>
   </si>
   <si>
     <t>Int. J. Interdisciplinary Scientific Res.</t>
   </si>
   <si>
-    <t>Int. J. Inventions Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Inventive Eng. Sciences</t>
+    <t>Int. J. Inventions Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Inventive Eng. Sci.</t>
   </si>
   <si>
     <t>The Int. J. Knowledge, Innovation Entreprenurship</t>
@@ -1990,13 +1987,13 @@
     <t>Int. J. Language Appl. Linguistics</t>
   </si>
   <si>
-    <t>Int. J. Language Learning Appl. Linguistics World</t>
-  </si>
-  <si>
-    <t>Int. J. Language Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Languages, Literature Linguistics</t>
+    <t>Int. J. Language Learn. Appl. Linguistics World</t>
+  </si>
+  <si>
+    <t>Int. J. Language Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Languages, Lit. Linguistics</t>
   </si>
   <si>
     <t>Int. J. Latest Res. Eng. Comput.</t>
@@ -2014,16 +2011,16 @@
     <t>Int. J. Latest Trends Engineering, Sci. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Law Legal Jurisprudence Studies</t>
-  </si>
-  <si>
-    <t>Int. J. Law Manage. Studies</t>
+    <t>Int. J. Law Legal Jurisprudence Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Law Manage. Stud.</t>
   </si>
   <si>
     <t>Int. J. Law Res.</t>
   </si>
   <si>
-    <t>Int. J. Learning, Teaching Educational Res.</t>
+    <t>Int. J. Learning, Teaching Educ. Res.</t>
   </si>
   <si>
     <t>Int. J. Liberal Arts &amp; Social Sci. [last word appears “Sciences”]</t>
@@ -2032,13 +2029,13 @@
     <t>Int. J. Life science Pharma Res.</t>
   </si>
   <si>
-    <t>Int. J. Life Sciences Biotechnology Pharma Res.</t>
+    <t>Int. J. Life Sci. Biotechnology Pharma Res.</t>
   </si>
   <si>
     <t>Int. J. Life-Sciences Scientific Res.</t>
   </si>
   <si>
-    <t>Int. J. Linguistics, Social Natural Sciences</t>
+    <t>Int. J. Linguistics, Social Natural Sci.</t>
   </si>
   <si>
     <t>Int. J. Livestock Res.</t>
@@ -2050,7 +2047,7 @@
     <t>Int. J. Management, Acc. &amp; Econ.</t>
   </si>
   <si>
-    <t>Int. J. Manage. Business Studies</t>
+    <t>Int. J. Manage. Bus. Stud.</t>
   </si>
   <si>
     <t>Int. J. Manage. Res.</t>
@@ -2059,16 +2056,16 @@
     <t>Int. J. Manage. Social Sci. Res. Rev.</t>
   </si>
   <si>
-    <t>Int. J. Management, Econ. Social Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Manage. Res. Business Strategy</t>
+    <t>Int. J. Management, Econ. Social Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Manage. Res. Bus. Strategy</t>
   </si>
   <si>
     <t>Int. J. Manage. Res. Rev.</t>
   </si>
   <si>
-    <t>Int. J. Manage. Sciences Business Res.</t>
+    <t>Int. J. Manage. Sci. Bus. Res.</t>
   </si>
   <si>
     <t>Int. J. Math. Archive</t>
@@ -2077,7 +2074,7 @@
     <t>Int. J. Math. Res. &amp; Sci.</t>
   </si>
   <si>
-    <t>Int. J. Math. Sciences &amp; Applications</t>
+    <t>Int. J. Math. Sci. &amp; Applications</t>
   </si>
   <si>
     <t>Int. J. Math. And Comput. Res.</t>
@@ -2092,40 +2089,40 @@
     <t>Int. J. Mechanical Eng. Inf. Technol. (IJMEIT</t>
   </si>
   <si>
-    <t>Int. J. Medical Health Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Of Medical Health Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Res. &amp; Health Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Res. &amp; Rev.</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Res. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Res. Professionals</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Sci. Educ.</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Sci. Public Health</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Sci. Res. Practice</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Sciences Health Care</t>
-  </si>
-  <si>
-    <t>Int. J. Medical Students</t>
+    <t>Int. J. Med. Health Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Of Med. Health Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Res. &amp; Health Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Res. &amp; Rev.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Res. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Res. Professionals</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Sci. Educ.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Sci. Public Health</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Sci. Res. Pract.</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Sci. Health Care</t>
+  </si>
+  <si>
+    <t>Int. J. Med. Students</t>
   </si>
   <si>
     <t>Int. J. Med. Biosciences</t>
@@ -2143,7 +2140,7 @@
     <t>Int. J. Modern Eng. Res.</t>
   </si>
   <si>
-    <t>Int. J. Modern Sciences Eng. Technol.</t>
+    <t>Int. J. Modern Sci. Eng. Technol.</t>
   </si>
   <si>
     <t>Int. J. Mosquito Res.</t>
@@ -2158,10 +2155,7 @@
     <t>Int. J. Multidisciplinary Educ. Res.</t>
   </si>
   <si>
-    <t>Int. J. Multidisciplinary Educational Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Multidisciplinary Health Sciences</t>
+    <t>Int. J. Multidisciplinary Health Sci.</t>
   </si>
   <si>
     <t>Int. J. Multidisciplinary Res. Develop.</t>
@@ -2179,7 +2173,7 @@
     <t>Int. J. Multidisciplinary Res. Rev.</t>
   </si>
   <si>
-    <t>Int. J. Multidisciplinary Sciences Eng.</t>
+    <t>Int. J. Multidisciplinary Sci. Eng.</t>
   </si>
   <si>
     <t>Int. J. Nanofluids Nanoparticles</t>
@@ -2188,13 +2182,13 @@
     <t>Int. J. Network Security</t>
   </si>
   <si>
-    <t>Int. J. Network Service Technologies</t>
+    <t>Int. J. Network Service Technol.</t>
   </si>
   <si>
     <t>Int. J. New Innovations Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. New Technologies Sci. Eng.</t>
+    <t>Int. J. New Technol. Sci. Eng.</t>
   </si>
   <si>
     <t>Int. J. New Technol. Res.</t>
@@ -2203,7 +2197,7 @@
     <t>Int. J. New Trends Arts, Sports &amp; Sci. Educ.</t>
   </si>
   <si>
-    <t>Int. J. Novel Trends Pharmaceutical Sciences</t>
+    <t>Int. J. Novel Trends Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Int. J. Nursing</t>
@@ -2212,19 +2206,19 @@
     <t>Int. J. Obstetrics Gynaecology Res.</t>
   </si>
   <si>
-    <t>Int. J. Oral Health Medical Res.</t>
+    <t>Int. J. Oral Health Med. Res.</t>
   </si>
   <si>
     <t>Int. J. Oncology Sci.</t>
   </si>
   <si>
-    <t>Int. J. Orthopaedics Sciences</t>
+    <t>Int. J. Orthopaedics Sci.</t>
   </si>
   <si>
     <t>Int. J. Pediatrics</t>
   </si>
   <si>
-    <t>Int. J. Pharma Bio Sciences</t>
+    <t>Int. J. Pharma Bio Sci.</t>
   </si>
   <si>
     <t>Int. J. Pharma Professional’s Res.</t>
@@ -2239,7 +2233,7 @@
     <t>Int. J. Pharmaceutical Biomed. Res.</t>
   </si>
   <si>
-    <t>Int. J. Pharmaceutical Clinical Res.</t>
+    <t>Int. J. Pharmaceutical Clin. Res.</t>
   </si>
   <si>
     <t>Int. J. Pharmaceutical Phytopharmacological Res.</t>
@@ -2260,19 +2254,19 @@
     <t>Int. J. Pharmaceutical Sci. Invention</t>
   </si>
   <si>
-    <t>Int. J. Pharmaceutical Sciences Business Manage.</t>
-  </si>
-  <si>
-    <t>Int. J. Pharmaceutical Sciences Drug Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Pharmaceutical Sciences Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Pharmaceutical Sciences Lett.</t>
-  </si>
-  <si>
-    <t>Int. J. Pharmaceutical Sciences Rev. Res.</t>
+    <t>Int. J. Pharmaceutical Sci. Bus. Manage.</t>
+  </si>
+  <si>
+    <t>Int. J. Pharmaceutical Sci. Drug Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Pharmaceutical Sci. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Pharmaceutical Sci. Lett.</t>
+  </si>
+  <si>
+    <t>Int. J. Pharmaceutical Sci. Rev. Res.</t>
   </si>
   <si>
     <t>Int. J. Pharmaceuticals Health Care Res.</t>
@@ -2284,7 +2278,7 @@
     <t>Int. J. Pharmacognosy Phytochemical Res.</t>
   </si>
   <si>
-    <t>Int. J. Pharmacology Physiology</t>
+    <t>Int. J. Pharmacology Physiol.</t>
   </si>
   <si>
     <t>Int. J. Pharmacy</t>
@@ -2296,7 +2290,7 @@
     <t>Int. J. Pharmacy Pharmaceutical Res.</t>
   </si>
   <si>
-    <t>Int. J. Pharmacy Pharmaceutical Sciences</t>
+    <t>Int. J. Pharmacy Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Int. J. Pharmacy Technol.</t>
@@ -2308,25 +2302,25 @@
     <t>Int. J. Physiotherapy</t>
   </si>
   <si>
-    <t>Int. J. Plant, Animal Environ. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Power Electronics Eng.</t>
+    <t>Int. J. Plant, Anim. Environ. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Power Electron. Eng.</t>
   </si>
   <si>
     <t>Int. J. Precious Eng. Res. Applications</t>
   </si>
   <si>
-    <t>Int. J. Printing, Packag. &amp; Allied Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Psycho-Educational Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Psychology Behavioral Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Psychology Educational Studies</t>
+    <t>Int. J. Printing, Packag. &amp; Allied Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Psycho-Educational Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Psychol. Behav. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Psychol. Educ. Stud.</t>
   </si>
   <si>
     <t>Int. J. Pure &amp; Appl. Bioscience</t>
@@ -2335,7 +2329,7 @@
     <t>Int. J. Pure Appl. Zoology</t>
   </si>
   <si>
-    <t>Int. J. Recent Advances Multidisciplinary Res.</t>
+    <t>Int. J. Recent Adv. Multidisciplinary Res.</t>
   </si>
   <si>
     <t>Int. J. Recent Develop. Eng. Technol.</t>
@@ -2344,7 +2338,7 @@
     <t>Int. J. Recent Eng. Res. Develop.</t>
   </si>
   <si>
-    <t>Int. J. Recent Res. Appl. Studies</t>
+    <t>Int. J. Recent Res. Appl. Stud.</t>
   </si>
   <si>
     <t>Int. J. Recent Res. Science, Eng. Technol.</t>
@@ -2353,13 +2347,13 @@
     <t>Int. J. Recent Scientific Res.</t>
   </si>
   <si>
-    <t>Int. J. Recent Surgical Medical Sciences</t>
+    <t>Int. J. Recent Surgical Med. Sci.</t>
   </si>
   <si>
     <t>Int. J. Recent Technol. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Recent Trends Electrical &amp; Electronics Eng.</t>
+    <t>Int. J. Recent Trends Electr. &amp; Electron. Eng.</t>
   </si>
   <si>
     <t>Int. J. Recent Trends Eng. &amp; Res.</t>
@@ -2374,10 +2368,10 @@
     <t>Int. J. Res. Current Develop.</t>
   </si>
   <si>
-    <t>Int. J. Res. Develop. Pharmacy &amp; Life Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Res. Develop. Technol. &amp; Manage. Sciences Kailash</t>
+    <t>Int. J. Res. Develop. Pharmacy &amp; Life Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Res. Develop. Technol. &amp; Manage. Sci. Kailash</t>
   </si>
   <si>
     <t>Int. J. Res. Eng.</t>
@@ -2389,7 +2383,7 @@
     <t>Int. J. Res. Sci. Publication</t>
   </si>
   <si>
-    <t>Int. J. Res. Culture Society</t>
+    <t>Int. J. Res. Cult. Society</t>
   </si>
   <si>
     <t>Int. J. Res. Develop.</t>
@@ -2401,13 +2395,13 @@
     <t>Int. J. Res. Adv. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Res. In Adv. Eng. Technologies</t>
+    <t>Int. J. Res. In Adv. Eng. Technol.</t>
   </si>
   <si>
     <t>Int. J. Res. Aeronautical Mechanical Eng.</t>
   </si>
   <si>
-    <t>Int. J. Res. Agricultural Sciences</t>
+    <t>Int. J. Res. Agricultural Sci.</t>
   </si>
   <si>
     <t>Int. J. Res. Agriculture Forestry</t>
@@ -2416,13 +2410,13 @@
     <t>Int. J. Res. Ayurveda Pharmacy IJRAP</t>
   </si>
   <si>
-    <t>Int. J. Res. Business Studies Manage.</t>
-  </si>
-  <si>
-    <t>Int. J. Res. Comput. Communication Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Res. Comput. Eng. &amp; Electronics</t>
+    <t>Int. J. Res. Bus. Stud. Manage.</t>
+  </si>
+  <si>
+    <t>Int. J. Res. Comput. Commun. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Res. Comput. Eng. &amp; Electron.</t>
   </si>
   <si>
     <t>Int. J. Res. Comput. Sci.</t>
@@ -2437,7 +2431,7 @@
     <t>Int. J. Res. Educ. Social Sci.</t>
   </si>
   <si>
-    <t>Int. J. Res. Electronics &amp; Communication Technol.</t>
+    <t>Int. J. Res. Electron. &amp; Commun. Technol.</t>
   </si>
   <si>
     <t>Int. J. Res. Eng. Adv. Technol.</t>
@@ -2449,22 +2443,22 @@
     <t>Int. J. Res. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Res. Humanities Social Sciences</t>
+    <t>Int. J. Res. Humanities Social Sci.</t>
   </si>
   <si>
     <t>Int. J. Res. Library Sci.</t>
   </si>
   <si>
-    <t>Int. J. Res. Manage. &amp; Business Studies</t>
+    <t>Int. J. Res. Manage. &amp; Bus. Stud.</t>
   </si>
   <si>
     <t>Int. J. Res. Mechanical Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Res. Medical &amp; Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Res. Medical Dental Sciences</t>
+    <t>Int. J. Res. Med. &amp; Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Res. Med. Dental Sci.</t>
   </si>
   <si>
     <t>Int. J. Res. Pharmacy Biosciences</t>
@@ -2491,16 +2485,16 @@
     <t>Int. J. Res. Sci. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Rev. Appl. Social Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Rev. Life Sciences Also: Hijacked version</t>
+    <t>Int. J. Rev. Appl. Social Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Rev. Life Sci. Also: Hijacked version</t>
   </si>
   <si>
     <t>Int. J. Rev. Comput.</t>
   </si>
   <si>
-    <t>Int. J. Reviews, Surveys Res.</t>
+    <t>Int. J. Reviews, Surv. Res.</t>
   </si>
   <si>
     <t>Int. J. Sanskrit Res.</t>
@@ -2536,7 +2530,7 @@
     <t>Int. J. Sci. Commerce Humanities</t>
   </si>
   <si>
-    <t>Int. J. Sci. Culture Sport</t>
+    <t>Int. J. Sci. Cult. Sport</t>
   </si>
   <si>
     <t>Int. J. Sci. Eng. Advance Technol.</t>
@@ -2557,10 +2551,10 @@
     <t>Int. J. Of Sci. Technol. &amp; Manage.</t>
   </si>
   <si>
-    <t>Int. J. Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Sciences Appl. Res.</t>
+    <t>Int. J. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Appl. Res.</t>
   </si>
   <si>
     <t>Int. J. Scientific &amp; Technol. Res.</t>
@@ -2575,7 +2569,7 @@
     <t>Int. J. Scientific Res. Publications</t>
   </si>
   <si>
-    <t>Int. J. Scientific Tech. Advancements</t>
+    <t>Int. J. Scientific Tech. Adv.</t>
   </si>
   <si>
     <t>Int. J. Scientific Eng. Appl. Sci.</t>
@@ -2587,10 +2581,10 @@
     <t>Int. J. Scientific Eng. Technol. Res.</t>
   </si>
   <si>
-    <t>Int. J. Scientific Progress &amp; Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. &amp; Manage. Studies</t>
+    <t>Int. J. Scientific Prog. &amp; Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Scientific Res. &amp; Manage. Stud.</t>
   </si>
   <si>
     <t>Int. J. Scientific Res. Appl.</t>
@@ -2620,7 +2614,7 @@
     <t>Int. J. Signal Process. Syst.</t>
   </si>
   <si>
-    <t>The Int. J. Social Appl. Sciences</t>
+    <t>The Int. J. Social Appl. Sci.</t>
   </si>
   <si>
     <t>Int. J. Social Sci. &amp; Econ. Res.</t>
@@ -2629,31 +2623,31 @@
     <t>Int. J. Social Sci. Humanity</t>
   </si>
   <si>
-    <t>The Int. J. Social Sciences</t>
-  </si>
-  <si>
-    <t>Int. J. Social Sciences Educ.</t>
-  </si>
-  <si>
-    <t>Int. J. Social Sciences Entrepreneurship</t>
+    <t>The Int. J. Social Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Social Sci. Educ.</t>
+  </si>
+  <si>
+    <t>Int. J. Social Sci. Entrepreneurship</t>
   </si>
   <si>
     <t>Int. J. Society Technol.</t>
   </si>
   <si>
-    <t>Int. J. Society, Culture &amp; Language</t>
+    <t>Int. J. Society, Cult. &amp; Language</t>
   </si>
   <si>
     <t>Int. J. Soft Comput. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Sport Studies</t>
+    <t>Int. J. Sport Stud.</t>
   </si>
   <si>
     <t>Int. J. Sustainable Develop. SEE OIDA Int. J. Sustainable Develop.</t>
   </si>
   <si>
-    <t>Int. J. Teacher Educational Res.</t>
+    <t>Int. J. Teacher Educ. Res.</t>
   </si>
   <si>
     <t>Int. J. Tech. Res. Applications</t>
@@ -2686,7 +2680,7 @@
     <t>Int. J. Trends Econ. Manage. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Universal Pharmacy Bio Sciences</t>
+    <t>Int. J. Universal Pharmacy Bio Sci.</t>
   </si>
   <si>
     <t>Int. J. Veterinary Sci.</t>
@@ -2701,10 +2695,10 @@
     <t>Int. J. World Res.</t>
   </si>
   <si>
-    <t>Int. J. Recent Innovation Trends Comput. Communication</t>
-  </si>
-  <si>
-    <t>Int. J. Recent Technologies Mechanical Electrical Eng.</t>
+    <t>Int. J. Recent Innovation Trends Comput. Commun.</t>
+  </si>
+  <si>
+    <t>Int. J. Recent Technol. Mechanical Electr. Eng.</t>
   </si>
   <si>
     <t>Int. J. Recent Trends Life Sci. Math.</t>
@@ -2719,10 +2713,10 @@
     <t>Int. Lett. Chemistry, Phys. Astronomy</t>
   </si>
   <si>
-    <t>Int. Lett. Natural Sciences</t>
-  </si>
-  <si>
-    <t>Int. Lett. Social Humanistic Sciences</t>
+    <t>Int. Lett. Natural Sci.</t>
+  </si>
+  <si>
+    <t>Int. Lett. Social Humanistic Sci.</t>
   </si>
   <si>
     <t>Int. Multidisciplinary Res. J.</t>
@@ -2743,34 +2737,34 @@
     <t>Int. Refereed J. Eng. Sci.</t>
   </si>
   <si>
-    <t>Int. Res. Publications Medical Sciences</t>
+    <t>Int. Res. Publications Med. Sci.</t>
   </si>
   <si>
     <t>Int. Res. J. Adv. Eng. Frontiers</t>
   </si>
   <si>
-    <t>Int. Res. J. Appl. Basic Sciences</t>
-  </si>
-  <si>
-    <t>Int. Res. J. Appl. Finance</t>
+    <t>Int. Res. J. Appl. Basic Sci.</t>
+  </si>
+  <si>
+    <t>Int. Res. J. Appl. Financ.</t>
   </si>
   <si>
     <t>Int. Res. J. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. Res. J. Finance Econ.</t>
-  </si>
-  <si>
-    <t>Int. Res. J. Manage. Sciences</t>
+    <t>Int. Res. J. Financ. Econ.</t>
+  </si>
+  <si>
+    <t>Int. Res. J. Manage. Sci.</t>
   </si>
   <si>
     <t>Int. Res. J. Multidisciplinary Sci. &amp; Technol.</t>
   </si>
   <si>
-    <t>Int. Res. J. Pharmaceutical Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Int. Res. J. Pharmaceutical Sciences</t>
+    <t>Int. Res. J. Pharmaceutical Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. Res. J. Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Int. Res. J. Pharmacy</t>
@@ -2782,13 +2776,13 @@
     <t>Int. Researchers</t>
   </si>
   <si>
-    <t>Int. Rev. Basic Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Int. Rev. Manage. Business Res.</t>
-  </si>
-  <si>
-    <t>Int. Rev. Social Sciences Humanities</t>
+    <t>Int. Rev. Basic Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. Rev. Manage. Bus. Res.</t>
+  </si>
+  <si>
+    <t>Int. Rev. Social Sci. Humanities</t>
   </si>
   <si>
     <t>Int. Sci. Investigation J.</t>
@@ -2797,13 +2791,13 @@
     <t>Int. Scientific Investigations Проблемы и перспективы современной науки</t>
   </si>
   <si>
-    <t>Int. Scientific J. Theoretical &amp; Appl. Sci.</t>
+    <t>Int. Scientific J. Theor. &amp; Appl. Sci.</t>
   </si>
   <si>
     <t>Int. Scientific Res. J.</t>
   </si>
   <si>
-    <t>Int. Tech. Sciences J.</t>
+    <t>Int. Tech. Sci. J.</t>
   </si>
   <si>
     <t>Invention J. Res. Technol. Eng. &amp; Manage.</t>
@@ -2836,46 +2830,46 @@
     <t>J. Francophone Cas Clinique</t>
   </si>
   <si>
-    <t>The J. Academic Social Sci. Studies</t>
-  </si>
-  <si>
-    <t>J. Adv. Agricultural Technologies</t>
-  </si>
-  <si>
-    <t>J. Adv. Studies Agricultural, Biol. Environ. Sciences</t>
-  </si>
-  <si>
-    <t>J. Adv. Veterinary Animal Res.</t>
-  </si>
-  <si>
-    <t>J. Advances Civil Eng.</t>
-  </si>
-  <si>
-    <t>J. Advances Electronics Communication Eng.</t>
-  </si>
-  <si>
-    <t>J. Advances Inf. Technol.</t>
-  </si>
-  <si>
-    <t>J. Advances Internal Med.</t>
-  </si>
-  <si>
-    <t>J. Advances Sci. Technol.</t>
-  </si>
-  <si>
-    <t>J. Advances Social Sci. Humanities</t>
-  </si>
-  <si>
-    <t>J. Agriculture, Forestry &amp; Environ. Sciences</t>
-  </si>
-  <si>
-    <t>J. American Academic Res.</t>
-  </si>
-  <si>
-    <t>The J. American Academy Business, Cambridge</t>
-  </si>
-  <si>
-    <t>The J. American Business Review, Cambridge</t>
+    <t>The J. Acad. Social Sci. Stud.</t>
+  </si>
+  <si>
+    <t>J. Adv. Agricultural Technol.</t>
+  </si>
+  <si>
+    <t>J. Adv. Stud. Agricultural, Biol. Environ. Sci.</t>
+  </si>
+  <si>
+    <t>J. Adv. Veterinary Anim. Res.</t>
+  </si>
+  <si>
+    <t>J. Adv. Civil Eng.</t>
+  </si>
+  <si>
+    <t>J. Adv. Electron. Commun. Eng.</t>
+  </si>
+  <si>
+    <t>J. Adv. Inf. Technol.</t>
+  </si>
+  <si>
+    <t>J. Adv. Internal Med.</t>
+  </si>
+  <si>
+    <t>J. Adv. Sci. Technol.</t>
+  </si>
+  <si>
+    <t>J. Adv. Social Sci. Humanities</t>
+  </si>
+  <si>
+    <t>J. Agriculture, Forestry &amp; Environ. Sci.</t>
+  </si>
+  <si>
+    <t>J. American Acad. Res.</t>
+  </si>
+  <si>
+    <t>The J. American Acad. Business, Cambridge</t>
+  </si>
+  <si>
+    <t>The J. American Bus. Review, Cambridge</t>
   </si>
   <si>
     <t>J. American Physicians Surgeons</t>
@@ -2887,10 +2881,10 @@
     <t>J. Analytical Res.</t>
   </si>
   <si>
-    <t>J. Animal Plant Sciences</t>
-  </si>
-  <si>
-    <t>J. Animal Poultry Sciences</t>
+    <t>J. Anim. Plant Sci.</t>
+  </si>
+  <si>
+    <t>J. Anim. Poultry Sci.</t>
   </si>
   <si>
     <t>J. Applicable Chem.</t>
@@ -2899,7 +2893,7 @@
     <t>J. Appl. Biology &amp; Biotechnology</t>
   </si>
   <si>
-    <t>J. Appl. Econ. Business</t>
+    <t>J. Appl. Econ. Bus.</t>
   </si>
   <si>
     <t>J. Appl. Linguistics Language Res.</t>
@@ -2923,19 +2917,19 @@
     <t>J. Autom. Control Eng.</t>
   </si>
   <si>
-    <t>J. Ayurveda Integrated Medical Sciences</t>
+    <t>J. Ayurveda Integrated Med. Sci.</t>
   </si>
   <si>
     <t>J. Ayurveda Holistic Med.</t>
   </si>
   <si>
-    <t>J. Basic Environ. Sciences</t>
-  </si>
-  <si>
-    <t>J. Behavioral Health</t>
-  </si>
-  <si>
-    <t>J. Behavioral Sciences Asia</t>
+    <t>J. Basic Environ. Sci.</t>
+  </si>
+  <si>
+    <t>J. Behav. Health</t>
+  </si>
+  <si>
+    <t>J. Behav. Sci. Asia</t>
   </si>
   <si>
     <t>J. Bio Innovation</t>
@@ -2944,7 +2938,7 @@
     <t>J. Biol. Scientific Opinion</t>
   </si>
   <si>
-    <t>J. Biol. Sciences Med.</t>
+    <t>J. Biol. Sci. Med.</t>
   </si>
   <si>
     <t>J. Biomed. Pharmaceutical Res.</t>
@@ -2956,49 +2950,46 @@
     <t>J. Biospectracal</t>
   </si>
   <si>
-    <t>J. Business Manage. Appl. Econ.</t>
-  </si>
-  <si>
-    <t>J. Business Manage. Econ. Studies</t>
-  </si>
-  <si>
-    <t>J. Business Studies Quarterly</t>
+    <t>J. Bus. Manage. Appl. Econ.</t>
+  </si>
+  <si>
+    <t>J. Bus. Manage. Econ. Stud.</t>
+  </si>
+  <si>
+    <t>J. Bus. Stud. Quarterly</t>
   </si>
   <si>
     <t>J. Chem. Pharmaceutical Res.</t>
   </si>
   <si>
-    <t>J. Chem. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>J. Chemical, Biol. Physical Sciences</t>
-  </si>
-  <si>
-    <t>J. Clean Energy Technologies</t>
-  </si>
-  <si>
-    <t>J. Clinical Analytical Med.</t>
-  </si>
-  <si>
-    <t>J. Commun. Technology, Electronics Comput. Sci.</t>
-  </si>
-  <si>
-    <t>J. Computers</t>
+    <t>J. Chem. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>J. Chemical, Biol. Physical Sci.</t>
+  </si>
+  <si>
+    <t>J. Clean Energy Technol.</t>
+  </si>
+  <si>
+    <t>J. Clin. Analytical Med.</t>
+  </si>
+  <si>
+    <t>J. Commun. Technology, Electron. Comput. Sci.</t>
   </si>
   <si>
     <t>J. Comput.</t>
   </si>
   <si>
-    <t>J. Comput. Technologies</t>
-  </si>
-  <si>
-    <t>J. Contemporary Issues Business Res.</t>
-  </si>
-  <si>
-    <t>J. Contemporary Manage. Sciences</t>
-  </si>
-  <si>
-    <t>J. Contemporary Medical Educ.</t>
+    <t>J. Comput. Technol.</t>
+  </si>
+  <si>
+    <t>J. Contemporary Issues Bus. Res.</t>
+  </si>
+  <si>
+    <t>J. Contemporary Manage. Sci.</t>
+  </si>
+  <si>
+    <t>J. Contemporary Med. Educ.</t>
   </si>
   <si>
     <t>J. Coastal Life Med.</t>
@@ -3028,28 +3019,28 @@
     <t>J. Econ. Political Economy</t>
   </si>
   <si>
-    <t>J. Economics, Business Manage.</t>
+    <t>J. Economics, Bus. Manage.</t>
   </si>
   <si>
     <t>J. Educ. Social Sci.</t>
   </si>
   <si>
-    <t>J. Educ. Sociology</t>
+    <t>J. Educ. Sociol.</t>
   </si>
   <si>
     <t>J. ELT Appl. Linguistics</t>
   </si>
   <si>
-    <t>J. Electrical Eng.</t>
-  </si>
-  <si>
-    <t>J. Electrical Eng. Sci.</t>
-  </si>
-  <si>
-    <t>J. Emerg. Trends Comput. Inf. Sciences</t>
-  </si>
-  <si>
-    <t>J. English Language Literature</t>
+    <t>J. Electr. Eng.</t>
+  </si>
+  <si>
+    <t>J. Electr. Eng. Sci.</t>
+  </si>
+  <si>
+    <t>J. Emerg. Trends Comput. Inf. Sci.</t>
+  </si>
+  <si>
+    <t>J. English Language Lit.</t>
   </si>
   <si>
     <t>J. Eng. Appl. Math.</t>
@@ -3058,10 +3049,10 @@
     <t>J. Eng. Innovation &amp; Res.</t>
   </si>
   <si>
-    <t>J. Entomology Zoology Studies</t>
-  </si>
-  <si>
-    <t>J. Environment Life Sciences</t>
+    <t>J. Entomology Zoology Stud.</t>
+  </si>
+  <si>
+    <t>J. Environment Life Sci.</t>
   </si>
   <si>
     <t>J. Environ. Occup. Sci.</t>
@@ -3088,13 +3079,13 @@
     <t>J. Evolution Res. Dermatol. Venerology</t>
   </si>
   <si>
-    <t>J. Evolution Res. Human Physiology</t>
-  </si>
-  <si>
-    <t>J. Evolution Res. Medical Microbiology</t>
-  </si>
-  <si>
-    <t>J. Evolution Res. Medical Pharmacology</t>
+    <t>J. Evolution Res. Human Physiol.</t>
+  </si>
+  <si>
+    <t>J. Evolution Res. Med. Microbiology</t>
+  </si>
+  <si>
+    <t>J. Evolution Res. Med. Pharmacology</t>
   </si>
   <si>
     <t>J. Evolution Res. Paediatrics Neonatology</t>
@@ -3103,10 +3094,10 @@
     <t>J. Excellence Comput. Sci. Eng.</t>
   </si>
   <si>
-    <t>J. Experimental Biology Agricultural Sciences</t>
-  </si>
-  <si>
-    <t>J. Experimental Sciences</t>
+    <t>J. Exp. Biology Agricultural Sci.</t>
+  </si>
+  <si>
+    <t>J. Exp. Sci.</t>
   </si>
   <si>
     <t>J. Financial Educ.</t>
@@ -3115,7 +3106,7 @@
     <t>J. Food, Agriculture Environment</t>
   </si>
   <si>
-    <t>J. Fundam. Appl. Sciences</t>
+    <t>J. Fundam. Appl. Sci.</t>
   </si>
   <si>
     <t>J. Genetic Environ. Resources Conservation</t>
@@ -3127,10 +3118,10 @@
     <t>J. Global Biosciences</t>
   </si>
   <si>
-    <t>J. Global Business Manage.</t>
-  </si>
-  <si>
-    <t>J. Global Innovations Agricultural Social Sciences</t>
+    <t>J. Global Bus. Manage.</t>
+  </si>
+  <si>
+    <t>J. Global Innovations Agricultural Social Sci.</t>
   </si>
   <si>
     <t>J. Global Res. Comput. Sci.</t>
@@ -3145,10 +3136,10 @@
     <t>J. HerbMed Pharmacology</t>
   </si>
   <si>
-    <t>J. Human Resource Adult Learning</t>
-  </si>
-  <si>
-    <t>J. Humanities Cultural Studies R&amp;D</t>
+    <t>J. Human Resource Adult Learn.</t>
+  </si>
+  <si>
+    <t>J. Humanities Cult. Stud. R&amp;D</t>
   </si>
   <si>
     <t>J. Hydrology Environment Res.</t>
@@ -3166,7 +3157,7 @@
     <t>J. Innovations Appl. Pharmaceutical Sci.</t>
   </si>
   <si>
-    <t>J. Innovations Pharmaceuticals Biol. Sciences</t>
+    <t>J. Innovations Pharmaceuticals Biol. Sci.</t>
   </si>
   <si>
     <t>J. Innov. Biology</t>
@@ -3184,7 +3175,7 @@
     <t>J. Interdisciplinary Histopathology</t>
   </si>
   <si>
-    <t>J. Int. Academic Res. Multidisciplinary</t>
+    <t>J. Int. Acad. Res. Multidisciplinary</t>
   </si>
   <si>
     <t>J. Int. Anatolia Sport Sci.</t>
@@ -3193,7 +3184,7 @@
     <t>J. Int. Environ. Appl. &amp; Sci.</t>
   </si>
   <si>
-    <t>J. Int. Manage. Studies</t>
+    <t>J. Int. Manage. Stud.</t>
   </si>
   <si>
     <t>The J. Internet Banking Commerce</t>
@@ -3205,7 +3196,7 @@
     <t>J. Knowl. Management, Econ. Inf. Technol.</t>
   </si>
   <si>
-    <t>J. Language Literature</t>
+    <t>J. Language Lit.</t>
   </si>
   <si>
     <t>J. Law Ethics</t>
@@ -3220,13 +3211,13 @@
     <t>J. Math. Technol.</t>
   </si>
   <si>
-    <t>J. Media &amp; Mass Communication</t>
+    <t>J. Media &amp; Mass Commun.</t>
   </si>
   <si>
     <t>J. Media Critiques</t>
   </si>
   <si>
-    <t>J. Medical Sci. Technol.</t>
+    <t>J. Med. Sci. Technol.</t>
   </si>
   <si>
     <t>J. Molecular Pathophysiology</t>
@@ -3238,28 +3229,28 @@
     <t>J. Natural Products</t>
   </si>
   <si>
-    <t>J. Novel Appl. Sciences</t>
-  </si>
-  <si>
-    <t>J. Medical Biomed. Appl. Sciences</t>
-  </si>
-  <si>
-    <t>J. Medical Pharmaceutical Allied Sciences</t>
-  </si>
-  <si>
-    <t>The J. Medical Res.</t>
-  </si>
-  <si>
-    <t>J. Medical Res. Practice</t>
-  </si>
-  <si>
-    <t>J. Medical Sci. Clinical Res.</t>
-  </si>
-  <si>
-    <t>Plants J. / J. Medicinal Plants Studies</t>
-  </si>
-  <si>
-    <t>J. Middle East North Africa Sciences</t>
+    <t>J. Novel Appl. Sci.</t>
+  </si>
+  <si>
+    <t>J. Med. Biomed. Appl. Sci.</t>
+  </si>
+  <si>
+    <t>J. Med. Pharmaceutical Allied Sci.</t>
+  </si>
+  <si>
+    <t>The J. Med. Res.</t>
+  </si>
+  <si>
+    <t>J. Med. Res. Pract.</t>
+  </si>
+  <si>
+    <t>J. Med. Sci. Clin. Res.</t>
+  </si>
+  <si>
+    <t>Plants J. / J. Medicinal Plants Stud.</t>
+  </si>
+  <si>
+    <t>J. Middle East North Africa Sci.</t>
   </si>
   <si>
     <t>J. Middle East Appl. Sci. Technol.</t>
@@ -3280,7 +3271,7 @@
     <t>J. Multidisciplinary Eng. Sci. Technol.</t>
   </si>
   <si>
-    <t>J. Multidisciplinary Eng. Sci. Studies</t>
+    <t>J. Multidisciplinary Eng. Sci. Stud.</t>
   </si>
   <si>
     <t>J. Nature Sci.</t>
@@ -3289,7 +3280,7 @@
     <t>J. Neurol. &amp; Neuromedicine</t>
   </si>
   <si>
-    <t>J. New Sciences</t>
+    <t>J. New Sci.</t>
   </si>
   <si>
     <t>The J. Nonlinear Sci. Applications</t>
@@ -3298,22 +3289,22 @@
     <t>J. Pharmaceutical Bioanalytical Sci.</t>
   </si>
   <si>
-    <t>J. Pharmaceutical Biol. Sciences</t>
-  </si>
-  <si>
-    <t>J. Pharmaceutical Biomed. Sciences</t>
+    <t>J. Pharmaceutical Biol. Sci.</t>
+  </si>
+  <si>
+    <t>J. Pharmaceutical Biomed. Sci.</t>
   </si>
   <si>
     <t>The J. Pharmaceutical Scientific Innovation</t>
   </si>
   <si>
-    <t>J. Pharmaceutical, Chem. Biol. Sciences</t>
+    <t>J. Pharmaceutical, Chem. Biol. Sci.</t>
   </si>
   <si>
     <t>J. Pharmacognosy Phytochemistry</t>
   </si>
   <si>
-    <t>J. Pharmacy Practice Community Med.</t>
+    <t>J. Pharmacy Pract. Commun. Med.</t>
   </si>
   <si>
     <t>J. Pharmacy Res.</t>
@@ -3325,16 +3316,16 @@
     <t>J. Physical Therapy Sci.</t>
   </si>
   <si>
-    <t>J. Psychology Theology</t>
+    <t>J. Psychol. Theology</t>
   </si>
   <si>
     <t>J. Postharvest Technol.</t>
   </si>
   <si>
-    <t>J. Process Manage. New Technologies Int.</t>
-  </si>
-  <si>
-    <t>J. Rare Diseases Res. &amp; Treatment</t>
+    <t>J. Process Manage. New Technol. Int.</t>
+  </si>
+  <si>
+    <t>J. Rare Dis. Res. &amp; Treatment</t>
   </si>
   <si>
     <t>The J. Reading Literacy</t>
@@ -3346,7 +3337,7 @@
     <t>J. Res. Biology</t>
   </si>
   <si>
-    <t>J. Res. Computers Technol.</t>
+    <t>J. Res. Comput. Technol.</t>
   </si>
   <si>
     <t>J. Res. Forensic Med. Toxicology</t>
@@ -3364,7 +3355,7 @@
     <t>J. Res. Preventive Social Med.</t>
   </si>
   <si>
-    <t>J. Res. Psychiatry Behavioural Sciences</t>
+    <t>J. Res. Psychiatry Behavioural Sci.</t>
   </si>
   <si>
     <t>J. Res. Radiodiagnosis, Teleradiology Imag.</t>
@@ -3379,7 +3370,7 @@
     <t>J. Sci. Its Applications</t>
   </si>
   <si>
-    <t>J. Sci. Technol. Advances</t>
+    <t>J. Sci. Technol. Adv.</t>
   </si>
   <si>
     <t>J. Sci. Editing</t>
@@ -3397,7 +3388,7 @@
     <t>J. Scientific Res. Pharmacy</t>
   </si>
   <si>
-    <t>J. Scientific Res. Physical &amp; Math. Sciences</t>
+    <t>J. Scientific Res. Physical &amp; Math. Sci.</t>
   </si>
   <si>
     <t>J. Scientific Theory Methods</t>
@@ -3412,7 +3403,7 @@
     <t>J. Spectroscopy Molecular Phys.</t>
   </si>
   <si>
-    <t>J. Studies Social Sciences Humanities</t>
+    <t>J. Stud. Social Sci. Humanities</t>
   </si>
   <si>
     <t>J. Surgery &amp; Patient Care</t>
@@ -3424,13 +3415,13 @@
     <t>J. The Int. Association Adv. Technol. Sci.</t>
   </si>
   <si>
-    <t>J. Theoretical Appl. Inf. Technol.</t>
+    <t>J. Theor. Appl. Inf. Technol.</t>
   </si>
   <si>
     <t>J. Trends Develop. Machinery Associated Technol.</t>
   </si>
   <si>
-    <t>Jundishapur J. Health Sciences</t>
+    <t>Jundishapur J. Health Sci.</t>
   </si>
   <si>
     <t>Junior Scientific Researcher</t>
@@ -3454,7 +3445,7 @@
     <t>LiBRI: Linguistic Literary Broad Res. Innovation</t>
   </si>
   <si>
-    <t>Lingua: Int. J. Linguistics, Literature Culture</t>
+    <t>Lingua: Int. J. Linguistics, Lit. Cult.</t>
   </si>
   <si>
     <t>Lokavishkar Int. E-Journal</t>
@@ -3472,7 +3463,7 @@
     <t>Mechanics, Mater. Sci. &amp; Eng. J.</t>
   </si>
   <si>
-    <t>Medical Res. Arch.</t>
+    <t>Med. Res. Arch.</t>
   </si>
   <si>
     <t>Medico Res. Chronicles</t>
@@ -3493,7 +3484,7 @@
     <t>MedLife Clinics</t>
   </si>
   <si>
-    <t>Modern Behavioral Sci.</t>
+    <t>Modern Behav. Sci.</t>
   </si>
   <si>
     <t>The Modern J. Appl. Linguistics</t>
@@ -3511,13 +3502,13 @@
     <t>NanoWorld J.</t>
   </si>
   <si>
-    <t>Nat. J. Basic Medical Sciences</t>
-  </si>
-  <si>
-    <t>Nat. J. Community Med.</t>
-  </si>
-  <si>
-    <t>Nat. J. Medical Dental Res.</t>
+    <t>Nat. J. Basic Med. Sci.</t>
+  </si>
+  <si>
+    <t>Nat. J. Commun. Med.</t>
+  </si>
+  <si>
+    <t>Nat. J. Med. Dental Res.</t>
   </si>
   <si>
     <t>Nat. J. Physiology, Pharmacy, Pharmacology</t>
@@ -3538,7 +3529,7 @@
     <t>Online Int. Interdisciplinary Res. J.</t>
   </si>
   <si>
-    <t>Online J. Communication Media Technologies</t>
+    <t>Online J. Commun. Media Technol.</t>
   </si>
   <si>
     <t>The Online J. Distance Educ. e-Learning</t>
@@ -3556,10 +3547,10 @@
     <t>Open Access J. Sci. Technol.</t>
   </si>
   <si>
-    <t>Open J. Clinical &amp; Medical Sciences</t>
-  </si>
-  <si>
-    <t>Open J. Clinical &amp; Medical Case Rep.</t>
+    <t>Open J. Clin. &amp; Med. Sci.</t>
+  </si>
+  <si>
+    <t>Open J. Clin. &amp; Med. Case Rep.</t>
   </si>
   <si>
     <t>Oriental J. Comput. Sci. Technol.</t>
@@ -3601,7 +3592,7 @@
     <t>PharmacologyOnline</t>
   </si>
   <si>
-    <t>PHARMANEST: An Int. J. Advances Pharmaceutical Sciences</t>
+    <t>PHARMANEST: An Int. J. Adv. Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>Physical Educ. Sports Res. J.</t>
@@ -3610,10 +3601,10 @@
     <t>Plant Dig.</t>
   </si>
   <si>
-    <t>Professionals Center Business Res.</t>
-  </si>
-  <si>
-    <t>Progress Phys.</t>
+    <t>Professionals Center Bus. Res.</t>
+  </si>
+  <si>
+    <t>Prog. Phys.</t>
   </si>
   <si>
     <t>Pyxis J.</t>
@@ -3652,7 +3643,7 @@
     <t>Res. Biotechnology</t>
   </si>
   <si>
-    <t>Res. Pharmacy Health Sciences</t>
+    <t>Res. Pharmacy Health Sci.</t>
   </si>
   <si>
     <t>Res. Innovator</t>
@@ -3664,13 +3655,13 @@
     <t>Res. Inventy: Int. J. Eng. Sci.</t>
   </si>
   <si>
-    <t>Res. J. Life Sciences, Bioinformatics, Pharmaceutical, Chem. Sciences</t>
-  </si>
-  <si>
-    <t>Res. J. Pharmaceutical, Biol. Chem. Sciences</t>
-  </si>
-  <si>
-    <t>Res. Opinions Animal Veterinary Sciences</t>
+    <t>Res. J. Life Sciences, Bioinformatics, Pharmaceutical, Chem. Sci.</t>
+  </si>
+  <si>
+    <t>Res. J. Pharmaceutical, Biol. Chem. Sci.</t>
+  </si>
+  <si>
+    <t>Res. Opinions Anim. Veterinary Sci.</t>
   </si>
   <si>
     <t>Res. Revolution</t>
@@ -3688,7 +3679,7 @@
     <t>Rev. Res.</t>
   </si>
   <si>
-    <t>Rev. Progress</t>
+    <t>Rev. Prog.</t>
   </si>
   <si>
     <t>Revista Electrónica las Ciencias Computacionales e Informática</t>
@@ -3712,7 +3703,7 @@
     <t>Revista Iberoamericana para la Investigación y el Desarrollo Educativo</t>
   </si>
   <si>
-    <t>Romanian Biotechnological Lett.</t>
+    <t>Rom. Biotechnological Lett.</t>
   </si>
   <si>
     <t>Sanskruti Int. Multidisciplinary Res. J.</t>
@@ -3763,7 +3754,7 @@
     <t>The Scitech J.</t>
   </si>
   <si>
-    <t>Scottish J. Arts, Social Sciences Scientific Studies</t>
+    <t>Scottish J. Arts, Social Sci. Scientific Stud.</t>
   </si>
   <si>
     <t>SCRO Annu. Report J.</t>
@@ -3793,13 +3784,13 @@
     <t>South Asian J. Math.</t>
   </si>
   <si>
-    <t>South Indian J. Of Biol. Sciences</t>
+    <t>South Indian J. Of Biol. Sci.</t>
   </si>
   <si>
     <t>South Pacific J. Technol. Sci.</t>
   </si>
   <si>
-    <t>South Pacific J. Pharma Bio Sciences</t>
+    <t>South Pacific J. Pharma Bio Sci.</t>
   </si>
   <si>
     <t>Sport Sci.</t>
@@ -3808,16 +3799,16 @@
     <t>Swedish J. Scientific Res.</t>
   </si>
   <si>
-    <t>Swiss J. Res. Business Social Sci.</t>
+    <t>Swiss J. Res. Bus. Social Sci.</t>
   </si>
   <si>
     <t>Tactful Manage. Res. J.</t>
   </si>
   <si>
-    <t>Tech. J. Eng. Appl. Sciences</t>
-  </si>
-  <si>
-    <t>Technics Technologies Educ. Manage.</t>
+    <t>Tech. J. Eng. Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Technics Technol. Educ. Manage.</t>
   </si>
   <si>
     <t>Tehnički vjesnik = Tech. Gazette</t>
@@ -3829,10 +3820,10 @@
     <t>Transnational J. Sci. Technol.</t>
   </si>
   <si>
-    <t>Transworld Medical J.</t>
-  </si>
-  <si>
-    <t>Trends J. Sciences Res.</t>
+    <t>Transworld Med. J.</t>
+  </si>
+  <si>
+    <t>Trends J. Sci. Res.</t>
   </si>
   <si>
     <t>Tropical Plant Res.</t>
@@ -3841,7 +3832,7 @@
     <t>Turkish J. Scientific Res.</t>
   </si>
   <si>
-    <t>Turkish Online J. Educational Technol.</t>
+    <t>Turkish Online J. Educ. Technol.</t>
   </si>
   <si>
     <t>Ultra Eng.</t>
@@ -3850,7 +3841,7 @@
     <t>Ulutas Genetic Res. J.</t>
   </si>
   <si>
-    <t>The Ulutas Medical J.</t>
+    <t>The Ulutas Med. J.</t>
   </si>
   <si>
     <t>Universal J. Appl. Comput. Sci. Technol.</t>
@@ -3877,10 +3868,10 @@
     <t>Weekly Sci. Int. Res. J.</t>
   </si>
   <si>
-    <t>World Academy Inform. Manage. Sciences</t>
-  </si>
-  <si>
-    <t>World Appl. Sciences J.</t>
+    <t>World Acad. Inform. Manage. Sci.</t>
+  </si>
+  <si>
+    <t>World Appl. Sci. J.</t>
   </si>
   <si>
     <t>World Essays J.</t>
@@ -3892,19 +3883,19 @@
     <t>World J. Eng. Res. Technol.</t>
   </si>
   <si>
-    <t>World J. Pharmaceutical Medical Res.</t>
-  </si>
-  <si>
-    <t>World J. Pharmaceutical Life Sciences</t>
+    <t>World J. Pharmaceutical Med. Res.</t>
+  </si>
+  <si>
+    <t>World J. Pharmaceutical Life Sci.</t>
   </si>
   <si>
     <t>World J. Pharmaceutical Res.</t>
   </si>
   <si>
-    <t>World J. Pharmaceutical Sciences</t>
-  </si>
-  <si>
-    <t>World J. Pharmacy Pharmaceutical Sciences</t>
+    <t>World J. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>World J. Pharmacy Pharmaceutical Sci.</t>
   </si>
   <si>
     <t>World J. Res. Rev.</t>
@@ -3913,7 +3904,7 @@
     <t>World J. Sci. Technol.</t>
   </si>
   <si>
-    <t>World Medical Student J.</t>
+    <t>World Med. Student J.</t>
   </si>
   <si>
     <t>World Scientific News</t>
@@ -6579,4232 +6570,4232 @@
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>

--- a/media/excel/predatoryjurnal_abv.xlsx
+++ b/media/excel/predatoryjurnal_abv.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1299">
-  <si>
-    <t>Acad. Exchange Quarterly</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1298">
+  <si>
+    <t>Acad. Exchange Q.</t>
   </si>
   <si>
     <t>Acad. Res. Rev.</t>
@@ -67,10 +67,10 @@
     <t>Adv. Science, Technol. Eng. Syst. J.</t>
   </si>
   <si>
-    <t>Afrasian J. Humanities Social Sci.</t>
-  </si>
-  <si>
-    <t>African J. Traditional, Complementary Altern. Medicines</t>
+    <t>Afrasian J. Humanities Soc. Sci.</t>
+  </si>
+  <si>
+    <t>African J. Traditional, Complement. Altern. Medicines</t>
   </si>
   <si>
     <t>Aging</t>
@@ -82,7 +82,7 @@
     <t>Al Ameen J. Med. Sci.</t>
   </si>
   <si>
-    <t>Aloy J. Soft Comput. Applications</t>
+    <t>Aloy J. Soft Comput. Appl.</t>
   </si>
   <si>
     <t>American Based Res. J.</t>
@@ -91,7 +91,7 @@
     <t>American Int. J. Contemporary Res.</t>
   </si>
   <si>
-    <t>American Int. J. Contemporary Scientific Res.</t>
+    <t>American Int. J. Contemporary Sci. Res.</t>
   </si>
   <si>
     <t>American J. Adv. Agricultural Res.</t>
@@ -100,13 +100,13 @@
     <t>American J. Adv. Drug Delivery</t>
   </si>
   <si>
-    <t>American J. Adv. Scientific Res.</t>
+    <t>American J. Adv. Sci. Res.</t>
   </si>
   <si>
     <t>American J. Adv. Med. Sci.</t>
   </si>
   <si>
-    <t>American J. Biotechnology Med. Res.</t>
+    <t>American J. Biotechnol. Med. Res.</t>
   </si>
   <si>
     <t>American J. Eng. Res.</t>
@@ -118,7 +118,7 @@
     <t>American J. Innov. Res. Appl. Sci.</t>
   </si>
   <si>
-    <t>American J. Pharmacy Health Res.</t>
+    <t>American J. Pharmacy Heal. Res.</t>
   </si>
   <si>
     <t>American J. PharmTech Res.</t>
@@ -130,16 +130,16 @@
     <t>American J. Res. Commun.</t>
   </si>
   <si>
-    <t>American J. Scientific Res.</t>
-  </si>
-  <si>
-    <t>American J. Social issues Humanities</t>
+    <t>American J. Sci. Res.</t>
+  </si>
+  <si>
+    <t>American J. Soc. issues Humanities</t>
   </si>
   <si>
     <t>American Res. Thoughts</t>
   </si>
   <si>
-    <t>American Scientific Res. J. Engineering, Technology, Sci.</t>
+    <t>American Sci. Res. J. Engineering, Technology, Sci.</t>
   </si>
   <si>
     <t>American Trans. Eng. &amp; Appl. Sci.</t>
@@ -172,7 +172,7 @@
     <t>Arch. Des Sci. J.</t>
   </si>
   <si>
-    <t>Arch. Clin. Exp. Surgery</t>
+    <t>Arch. Clin. Exp. Surg.</t>
   </si>
   <si>
     <t>ARNACA American J. Adv. Med. Sci.</t>
@@ -208,34 +208,34 @@
     <t>Asian J. Chem.</t>
   </si>
   <si>
-    <t>Asian J. Health Med. Sci.</t>
-  </si>
-  <si>
-    <t>Asian J. Humanities Social Sci.</t>
+    <t>Asian J. Heal. Med. Sci.</t>
+  </si>
+  <si>
+    <t>Asian J. Humanities Soc. Sci.</t>
   </si>
   <si>
     <t>Asian J. Bus. Manage. Sci.</t>
   </si>
   <si>
-    <t>Asian J. Math. Applications</t>
+    <t>Asian J. Math. Appl.</t>
   </si>
   <si>
     <t>Asian J. Multidisciplinary Stud.</t>
   </si>
   <si>
-    <t>Asian J. Pharmaceutical Health Sci.</t>
+    <t>Asian J. Pharmaceutical Heal. Sci.</t>
   </si>
   <si>
     <t>Asian J. Pharmacy Life Sci.</t>
   </si>
   <si>
-    <t>Asian J. Pharmaceutical Res. Health Care</t>
+    <t>Asian J. Pharmaceutical Res. Heal. Care</t>
   </si>
   <si>
     <t>Asian J. Sci. Technol.</t>
   </si>
   <si>
-    <t>Asian Pacific J. Health Sci.</t>
+    <t>Asian Pacific J. Heal. Sci.</t>
   </si>
   <si>
     <t>Asian Pacific J. Tropical Dis.</t>
@@ -268,7 +268,7 @@
     <t>Ayushdhar</t>
   </si>
   <si>
-    <t>Bio Bulletin</t>
+    <t>Bio Bull.</t>
   </si>
   <si>
     <t>Bioinformation</t>
@@ -277,7 +277,7 @@
     <t>Biointerface Res. Appl. Chem.</t>
   </si>
   <si>
-    <t>Biomaterials Tissue Eng. Bulletin</t>
+    <t>Biomaterials Tissue Eng. Bull.</t>
   </si>
   <si>
     <t>Biomed. &amp; Pharmacology J.</t>
@@ -295,19 +295,19 @@
     <t>The Bioscan</t>
   </si>
   <si>
-    <t>Bioresearch Bulletin</t>
+    <t>Bioresearch Bull.</t>
   </si>
   <si>
     <t>Bioscience Bioengineering Commun.</t>
   </si>
   <si>
-    <t>Bioscience Biotechnology Res. Commun.</t>
+    <t>Bioscience Biotechnol. Res. Commun.</t>
   </si>
   <si>
     <t>Bioscience Discovery</t>
   </si>
   <si>
-    <t>Biosciences, Biotechnology Res. Asia</t>
+    <t>Biosciences, Biotechnol. Res. Asia</t>
   </si>
   <si>
     <t>Biosciences Int.</t>
@@ -319,7 +319,7 @@
     <t>Bot. J.</t>
   </si>
   <si>
-    <t>British Biomed. Bulletin</t>
+    <t>British Biomed. Bull.</t>
   </si>
   <si>
     <t>British J. Economics, Financ. Manage. Sci.</t>
@@ -328,7 +328,7 @@
     <t>British J. Interdisciplinary Stud.</t>
   </si>
   <si>
-    <t>British J. Med. Health Res.</t>
+    <t>British J. Med. Heal. Res.</t>
   </si>
   <si>
     <t>British J. Sci.</t>
@@ -337,19 +337,19 @@
     <t>Buletin Teknologi Makanan</t>
   </si>
   <si>
-    <t>Bulletin Appl. Res. Sci.</t>
-  </si>
-  <si>
-    <t>Bulletin Environment, Pharmacology Life Sci.</t>
-  </si>
-  <si>
-    <t>Bulletin Math. Sci. &amp; Applications</t>
-  </si>
-  <si>
-    <t>Bulletin Pharmaceutical Res.</t>
-  </si>
-  <si>
-    <t>Bulletin Society Math. Services Standards</t>
+    <t>Bull. Appl. Res. Sci.</t>
+  </si>
+  <si>
+    <t>Bull. Environment, Pharmacology Life Sci.</t>
+  </si>
+  <si>
+    <t>Bull. Math. Sci. &amp; Appl.</t>
+  </si>
+  <si>
+    <t>Bull. Pharmaceutical Res.</t>
+  </si>
+  <si>
+    <t>Bull. Soc. Math. Services Standards</t>
   </si>
   <si>
     <t>Bus. Econ. J.</t>
@@ -370,13 +370,13 @@
     <t>Canadian J. Basic Appl. Sci.</t>
   </si>
   <si>
-    <t>Canadian J. Biotechnology</t>
+    <t>Canadian J. Biotechnol.</t>
   </si>
   <si>
     <t>Canadian J. Pure Appl. Sci.</t>
   </si>
   <si>
-    <t>Canadian Scientific J.</t>
+    <t>Canadian Sci. J.</t>
   </si>
   <si>
     <t>Cancer Res. Frontiers</t>
@@ -394,7 +394,7 @@
     <t>The Caspian Sea J.</t>
   </si>
   <si>
-    <t>Cell. Molecular Biology</t>
+    <t>Cell. Molecular Biol.</t>
   </si>
   <si>
     <t>Centrum</t>
@@ -409,7 +409,7 @@
     <t>Clinics Oncology</t>
   </si>
   <si>
-    <t>Clinics Surgery</t>
+    <t>Clinics Surg.</t>
   </si>
   <si>
     <t>Columban J. Life Sci.</t>
@@ -439,16 +439,16 @@
     <t>Cumhuriyet Sci. J.</t>
   </si>
   <si>
-    <t>Current Biotica</t>
-  </si>
-  <si>
-    <t>Current Bot.</t>
-  </si>
-  <si>
-    <t>Current Discovery</t>
-  </si>
-  <si>
-    <t>Current Trends Technol. Sci.</t>
+    <t>Curr. Biotica</t>
+  </si>
+  <si>
+    <t>Curr. Bot.</t>
+  </si>
+  <si>
+    <t>Curr. Discovery</t>
+  </si>
+  <si>
+    <t>Curr. Trends Technol. Sci.</t>
   </si>
   <si>
     <t>DAV Int. J. Sci.</t>
@@ -472,7 +472,7 @@
     <t>Eastern Acad. J.</t>
   </si>
   <si>
-    <t>Eastern Eur. Scientific J.</t>
+    <t>Eastern Eur. Sci. J.</t>
   </si>
   <si>
     <t>E-Library Sci. Res. J.</t>
@@ -481,7 +481,7 @@
     <t>Ecoforum</t>
   </si>
   <si>
-    <t>Ecoletra.com Scientific eJournal</t>
+    <t>Ecoletra.com Sci. eJournal</t>
   </si>
   <si>
     <t>Educ. Reform J.</t>
@@ -493,7 +493,7 @@
     <t>Eduved, Int. J. Interdisciplinary Res.</t>
   </si>
   <si>
-    <t>Electron. J. Biology</t>
+    <t>Electron. J. Biol.</t>
   </si>
   <si>
     <t>Electron. J. Eng. Technol.</t>
@@ -523,13 +523,13 @@
     <t>ESSENCE: Int. J. Environ. Rehabilitation Conservation</t>
   </si>
   <si>
-    <t>Euro-Afro J. Arts Social Sci.</t>
+    <t>Euro-Afro J. Arts Soc. Sci.</t>
   </si>
   <si>
     <t>Eur. Acad. Res.</t>
   </si>
   <si>
-    <t>Eur. Chem. Bulletin</t>
+    <t>Eur. Chem. Bull.</t>
   </si>
   <si>
     <t>Eur. Environ. Sci. Ecol. J.</t>
@@ -553,10 +553,10 @@
     <t>Eur. J. Biomed. Pharmaceutical Sci.</t>
   </si>
   <si>
-    <t>Eur. J. Biotechnology Bioscience</t>
-  </si>
-  <si>
-    <t>Eur. J. Bus. Social Sci.</t>
+    <t>Eur. J. Biotechnol. Bioscience</t>
+  </si>
+  <si>
+    <t>Eur. J. Bus. Soc. Sci.</t>
   </si>
   <si>
     <t>Eur. J. Chem.</t>
@@ -583,13 +583,13 @@
     <t>Eur. J. Pharmaceutical Med. Res.</t>
   </si>
   <si>
-    <t>Eur. J. Sci. Theology</t>
-  </si>
-  <si>
-    <t>Eur. J. Scientific Res.</t>
-  </si>
-  <si>
-    <t>Eur. J. Social Sci.</t>
+    <t>Eur. J. Sci. Theol.</t>
+  </si>
+  <si>
+    <t>Eur. J. Sci. Res.</t>
+  </si>
+  <si>
+    <t>Eur. J. Soc. Sci.</t>
   </si>
   <si>
     <t>Eur. J. Sustainable Develop.</t>
@@ -598,22 +598,22 @@
     <t>Eur. Law Politics J.</t>
   </si>
   <si>
-    <t>Eur. Online J. Natural Social Sci.</t>
-  </si>
-  <si>
-    <t>Eur. Scientific J.</t>
+    <t>Eur. Online J. Natural Soc. Sci.</t>
+  </si>
+  <si>
+    <t>Eur. Sci. J.</t>
   </si>
   <si>
     <t>The Experiment</t>
   </si>
   <si>
-    <t>First Independent Scientific J.</t>
+    <t>First Independent Sci. J.</t>
   </si>
   <si>
     <t>FLUIDS: Int. J. Med. Fluid Manage.</t>
   </si>
   <si>
-    <t>Food Biology</t>
+    <t>Food Biol.</t>
   </si>
   <si>
     <t>FOREX Tech. J. Library</t>
@@ -622,13 +622,13 @@
     <t>Frontiers Aerosp. Eng.</t>
   </si>
   <si>
-    <t>Funct. Analysis: Theory, Method &amp; Applications</t>
+    <t>Funct. Analysis: Theory, Method &amp; Appl.</t>
   </si>
   <si>
     <t>G-Journal Environ. Sci. Technol.</t>
   </si>
   <si>
-    <t>G-Journal Education, Social Sci. Humanities</t>
+    <t>G-Journal Education, Soc. Sci. Humanities</t>
   </si>
   <si>
     <t>Galaxy: Int. Multidisciplinary Res. J.</t>
@@ -640,16 +640,16 @@
     <t>Generics Biosimilars Initiative J.</t>
   </si>
   <si>
-    <t>Genetics Molecular Res.</t>
-  </si>
-  <si>
-    <t>Geodynamics Res. Int. Bulletin</t>
+    <t>Genet. Molecular Res.</t>
+  </si>
+  <si>
+    <t>Geodynamics Res. Int. Bull.</t>
   </si>
   <si>
     <t>Global Bus. &amp; Financ. Rev.</t>
   </si>
   <si>
-    <t>Global J. Res. Analysis</t>
+    <t>Global J. Res. Anal.</t>
   </si>
   <si>
     <t>Global J. Adv. Eng. Technol. Sci.</t>
@@ -658,13 +658,13 @@
     <t>Global J. Adv. Res.</t>
   </si>
   <si>
-    <t>Global J. Anim. Scientific Res.</t>
-  </si>
-  <si>
-    <t>Global J. Bus. Social Sci.</t>
-  </si>
-  <si>
-    <t>Global J. Bus. Social Sci. Rev.</t>
+    <t>Global J. Anim. Sci. Res.</t>
+  </si>
+  <si>
+    <t>Global J. Bus. Soc. Sci.</t>
+  </si>
+  <si>
+    <t>Global J. Bus. Soc. Sci. Rev.</t>
   </si>
   <si>
     <t>Global J. Eng. Sci. Res. Manage.</t>
@@ -673,10 +673,10 @@
     <t>Global J. Manage. Sci. Technol.</t>
   </si>
   <si>
-    <t>Global J. Med. Health Sci.</t>
-  </si>
-  <si>
-    <t>Global J. Med. Public Health</t>
+    <t>Global J. Med. Heal. Sci.</t>
+  </si>
+  <si>
+    <t>Global J. Med. Public Heal.</t>
   </si>
   <si>
     <t>Global J. Multidisciplinary Stud.</t>
@@ -721,10 +721,10 @@
     <t>Ideal J. Educ. Policy Stud.</t>
   </si>
   <si>
-    <t>Ideal J. Psychol. Theology</t>
-  </si>
-  <si>
-    <t>Indian J. Adv. Nursing</t>
+    <t>Ideal J. Psychol. Theol.</t>
+  </si>
+  <si>
+    <t>Indian J. Adv. Nsg.</t>
   </si>
   <si>
     <t>Indian J. Adv. Chem. Sci.</t>
@@ -754,13 +754,13 @@
     <t>Indian J. Res. Anvikshiki</t>
   </si>
   <si>
-    <t>Indian J. Res. Pharmacy Biotechnology</t>
-  </si>
-  <si>
-    <t>Indian J. Scientific Res.</t>
-  </si>
-  <si>
-    <t>Indian J. Scientific Res. Technol.</t>
+    <t>Indian J. Res. Pharmacy Biotechnol.</t>
+  </si>
+  <si>
+    <t>Indian J. Sci. Res.</t>
+  </si>
+  <si>
+    <t>Indian J. Sci. Res. Technol.</t>
   </si>
   <si>
     <t>Indian Res. J. Pharmacy Sci.</t>
@@ -790,7 +790,7 @@
     <t>Innovations Pharmaceuticals Pharmacotherapy</t>
   </si>
   <si>
-    <t>Institute Electr. &amp; Electron. Engineers Adv. J.</t>
+    <t>Inst. Electr. &amp; Electron. Eng. Adv. J.</t>
   </si>
   <si>
     <t>Integrated J. British</t>
@@ -802,7 +802,7 @@
     <t>Interdisciplinary J. Res. Bus.</t>
   </si>
   <si>
-    <t>Interdisciplinary Toxicology</t>
+    <t>Interdisciplinary Toxicol.</t>
   </si>
   <si>
     <t>Internal Med. Rev.</t>
@@ -823,10 +823,10 @@
     <t>The Int. Asian Res. J.</t>
   </si>
   <si>
-    <t>Int. Biology Rev.</t>
-  </si>
-  <si>
-    <t>Int. Bulletin Bus. Administration</t>
+    <t>Int. Biol. Rev.</t>
+  </si>
+  <si>
+    <t>Int. Bull. Bus. Administration</t>
   </si>
   <si>
     <t>Int. Cardiovascular Forum</t>
@@ -847,22 +847,22 @@
     <t>Int. Educ. E-Journal</t>
   </si>
   <si>
-    <t>Int. Educ. Scientific Res. J.</t>
+    <t>Int. Educ. Sci. Res. J.</t>
   </si>
   <si>
     <t>The Int. Interdisciplinary J. Educ.</t>
   </si>
   <si>
-    <t>Int. Interdisciplinary J. Scientific Res.</t>
+    <t>Int. Interdisciplinary J. Sci. Res.</t>
   </si>
   <si>
     <t>Int. J. &amp; Magazine Engineering, Technology, Manage. Res.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Social Sci. Humanities</t>
-  </si>
-  <si>
-    <t>Int. J. Bulletin Multidisciplinary Res.</t>
+    <t>Int. J. Adv. Soc. Sci. Humanities</t>
+  </si>
+  <si>
+    <t>Int. J. Bull. Multidisciplinary Res.</t>
   </si>
   <si>
     <t>Int. J. Adv. Rev. Res. Pharmacy</t>
@@ -898,7 +898,7 @@
     <t>Int. J. Res. Eng. Appl. &amp; Manage.</t>
   </si>
   <si>
-    <t>Int. J. Scientific Res. &amp; Develop.</t>
+    <t>Int. J. Sci. Res. &amp; Develop.</t>
   </si>
   <si>
     <t>Int. J. Technological Res. Eng.</t>
@@ -913,7 +913,7 @@
     <t>Int. J. Acad. Stud.</t>
   </si>
   <si>
-    <t>Int. J. Advance Comput. Techniques Applications</t>
+    <t>Int. J. Advance Comput. Techniques Appl.</t>
   </si>
   <si>
     <t>Int. J. Advance Eng. Res. Develop.</t>
@@ -964,13 +964,13 @@
     <t>Int. J. Adv. Eng. Nano Technol.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Eng. Applications</t>
+    <t>Int. J. Adv. Eng. Appl.</t>
   </si>
   <si>
     <t>Int. J. Adv. Engineering, Manage. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Eng. Res. Applications</t>
+    <t>Int. J. Adv. Eng. Res. Appl.</t>
   </si>
   <si>
     <t>Int. J. Adv. Eng. Res. Sci.</t>
@@ -991,7 +991,7 @@
     <t>Int. J. Adv. Multidisciplinary Res.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Netw. Applications</t>
+    <t>Int. J. Adv. Netw. Appl.</t>
   </si>
   <si>
     <t>Int. J. Adv. Res.</t>
@@ -1045,7 +1045,7 @@
     <t>Int. J. Adv. Sci. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Scientific Res. &amp; Develop.</t>
+    <t>Int. J. Adv. Sci. Res. &amp; Develop.</t>
   </si>
   <si>
     <t>Int. J. Adv. Technol. Innov. Res.</t>
@@ -1060,7 +1060,7 @@
     <t>Int. J. Adv. Technol. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Adv. Trends Comput. Applications</t>
+    <t>Int. J. Adv. Trends Comput. Appl.</t>
   </si>
   <si>
     <t>Int. J. Advancement Eng. Technology, Manage. &amp; Appl. Sci.</t>
@@ -1123,7 +1123,7 @@
     <t>Int. J. Agronomy &amp; Plant Production</t>
   </si>
   <si>
-    <t>Int. J. All Res. Educ. &amp; Scientific Methods</t>
+    <t>Int. J. All Res. Educ. &amp; Sci. Methods</t>
   </si>
   <si>
     <t>Int. J. Appl. Innovation Eng. &amp; Manage.</t>
@@ -1132,7 +1132,7 @@
     <t>Int. J. Appl. Pure Sci. Agriculture</t>
   </si>
   <si>
-    <t>Int. J. Appl. Biology Pharmaceutical Technol.</t>
+    <t>Int. J. Appl. Biol. Pharmaceutical Technol.</t>
   </si>
   <si>
     <t>Int. J. Appl. Dental Sci.</t>
@@ -1165,7 +1165,7 @@
     <t>Int. J. Appl. Sci. Eng. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Appl. Sci. Biotechnology</t>
+    <t>Int. J. Appl. Sci. Biotechnol.</t>
   </si>
   <si>
     <t>Int. J. Appl. Sci. Eng.</t>
@@ -1189,7 +1189,7 @@
     <t>Int. J. Arts, Humanities Manage. Stud.</t>
   </si>
   <si>
-    <t>Int. J. Arts Humanities Social Sci.</t>
+    <t>Int. J. Arts Humanities Soc. Sci.</t>
   </si>
   <si>
     <t>Int. J. Ayurveda Pharma Res.</t>
@@ -1243,7 +1243,7 @@
     <t>Int. J. Bus. Manage. Invention</t>
   </si>
   <si>
-    <t>Int. J. Bus. Social Res.</t>
+    <t>Int. J. Bus. Soc. Res.</t>
   </si>
   <si>
     <t>Int. J. Bus. Manage. Econ. Res.</t>
@@ -1282,13 +1282,13 @@
     <t>Int. J. Clin. Cases Investigations</t>
   </si>
   <si>
-    <t>Int. J. Collaborative Res. Internal Med. &amp; Public Health</t>
+    <t>Int. J. Collaborative Res. Internal Med. &amp; Public Heal.</t>
   </si>
   <si>
     <t>Int. J. Commerce Manage. Res.</t>
   </si>
   <si>
-    <t>Int. J. Commun. Health</t>
+    <t>Int. J. Commun. Heal.</t>
   </si>
   <si>
     <t>Int. J. Commun. Networks Inf. Security</t>
@@ -1315,25 +1315,25 @@
     <t>Int. J. Comput. Inf. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Comput. Applications</t>
+    <t>Int. J. Comput. Appl.</t>
   </si>
   <si>
     <t>Int. J. Comput. Appl. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Comput. Applications Eng. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. Applications Technol. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Comput. Eng. &amp; Applications</t>
+    <t>Int. J. Comput. Appl. Eng. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. Appl. Technol. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Comput. Eng. &amp; Appl.</t>
   </si>
   <si>
     <t>Int. J. Comput. Eng. Res. Trends</t>
   </si>
   <si>
-    <t>Int. J. Comput. Networks Applications</t>
+    <t>Int. J. Comput. Networks Appl.</t>
   </si>
   <si>
     <t>Int. J. Comput. Networks Commun. Security</t>
@@ -1390,7 +1390,7 @@
     <t>Int. J. Comput. Syst.</t>
   </si>
   <si>
-    <t>Int. J. Comput. Technol. Applications</t>
+    <t>Int. J. Comput. Technol. Appl.</t>
   </si>
   <si>
     <t>Int. J. Comput. Technol. Electron. Eng.</t>
@@ -1417,64 +1417,64 @@
     <t>Int. J. Core Eng. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Current Adv. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Agricultural Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Bus. Social Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Eng. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Innovation Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Med. Pharmaceutical Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Med. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Microbiology Appl. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Multidisciplinary Stud.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Pharmaceutical Rev. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res. Acad. Rev.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res. Rev.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res. Chem. Pharmaceutical Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res. Life Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Res. Multidisciplinary</t>
-  </si>
-  <si>
-    <t>Int. J. Current Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Current Sci. Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Dental Health Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Dermatopathology Surgery</t>
+    <t>Int. J. Curr. Adv. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Agricultural Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Bus. Soc. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Eng. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Innovation Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Med. Pharmaceutical Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Med. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Microbiol. Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Multidisciplinary Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Pharmaceutical Rev. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Res. Acad. Rev.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Res. Rev.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Res. Chem. Pharmaceutical Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Res. Life Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Res. Multidisciplinary</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Curr. Sci. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Dental Heal. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Dermatopathology Surg.</t>
   </si>
   <si>
     <t>Int. J. Develop. Sustainability</t>
@@ -1492,7 +1492,7 @@
     <t>Int. J. Drug Develop. Res.</t>
   </si>
   <si>
-    <t>Int. J. E-Computer Sci. Evolution</t>
+    <t>Int. J. E-Computer Sci. Evol.</t>
   </si>
   <si>
     <t>Int. J. Econ. Financ.</t>
@@ -1516,7 +1516,7 @@
     <t>Int. J. Educ. Res.</t>
   </si>
   <si>
-    <t>Int. J. Educ. Social Sci.</t>
+    <t>Int. J. Educ. Soc. Sci.</t>
   </si>
   <si>
     <t>The Int. J. Educ. Psychol. Assessment</t>
@@ -1525,7 +1525,7 @@
     <t>Int. J. Educ. Investigations</t>
   </si>
   <si>
-    <t>Int. J. Electr. Electron. Engineers</t>
+    <t>Int. J. Electr. Electron. Eng.</t>
   </si>
   <si>
     <t>Int. J. Electrical, Electron. Comput.</t>
@@ -1645,7 +1645,7 @@
     <t>Int. J. Eng. Res.</t>
   </si>
   <si>
-    <t>Int. J. Eng. Res. Applications</t>
+    <t>Int. J. Eng. Res. Appl.</t>
   </si>
   <si>
     <t>Int. J. Eng. Res. Comput. Sci.</t>
@@ -1705,13 +1705,13 @@
     <t>Int. J. Eng. Technol. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Eng. Technol. Scientific Innovation</t>
+    <t>Int. J. Eng. Technol. Sci. Innovation</t>
   </si>
   <si>
     <t>Int. J. Eng. Technology, Manage. Appl. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Eng. Trends Applications</t>
+    <t>Int. J. Eng. Trends Appl.</t>
   </si>
   <si>
     <t>Int. J. Eng. Trends Technol.</t>
@@ -1735,13 +1735,13 @@
     <t>Int. J. Enterprise Comput. Bus. Syst.</t>
   </si>
   <si>
-    <t>Int. J. Environment</t>
+    <t>Int. J. Environ.</t>
   </si>
   <si>
     <t>Int. J. Environ. &amp; Agriculture Res.</t>
   </si>
   <si>
-    <t>Int. J. Environment, Agriculture Biotechnology</t>
+    <t>Int. J. Environment, Agriculture Biotechnol.</t>
   </si>
   <si>
     <t>Int. J. Environ. Sci. Develop.</t>
@@ -1774,13 +1774,13 @@
     <t>Int. J. Green Herbal Chem.</t>
   </si>
   <si>
-    <t>Int. J. Health Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Health Res. Modern Integrated Med. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Health Sci. Res.</t>
+    <t>Int. J. Heal. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Heal. Res. Modern Integrated Med. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Heal. Sci. Res.</t>
   </si>
   <si>
     <t>Int. J. Herbal Med.</t>
@@ -1795,28 +1795,28 @@
     <t>Int. J. Home Sci.</t>
   </si>
   <si>
-    <t>Int. J. Human Resource Procurement</t>
-  </si>
-  <si>
-    <t>Int. J. Human Sci.</t>
+    <t>Int. J. Hum. Resource Procurement</t>
+  </si>
+  <si>
+    <t>Int. J. Hum. Sci.</t>
   </si>
   <si>
     <t>Int. J. Humanities Cult. Stud.</t>
   </si>
   <si>
-    <t>Int. J. Humanities Social Sci. Invention</t>
-  </si>
-  <si>
-    <t>Int. J. Humanities Social Sci. Res.</t>
-  </si>
-  <si>
-    <t>The Int. J. Humanities &amp; Social Stud.</t>
-  </si>
-  <si>
-    <t>Int. J. Humanities &amp; Social Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Humanities Religion</t>
+    <t>Int. J. Humanities Soc. Sci. Invention</t>
+  </si>
+  <si>
+    <t>Int. J. Humanities Soc. Sci. Res.</t>
+  </si>
+  <si>
+    <t>The Int. J. Humanities &amp; Soc. Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Humanities &amp; Soc. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Humanities Relig.</t>
   </si>
   <si>
     <t>Int. J. Humanities, Eng. Pharmaceutical Sci.</t>
@@ -1960,7 +1960,7 @@
     <t>Int. J. Innov. Trends Eng.</t>
   </si>
   <si>
-    <t>Int. J. Integrated Comput. Applications &amp; Res.</t>
+    <t>Int. J. Integrated Comput. Appl. &amp; Res.</t>
   </si>
   <si>
     <t>Int. J. Integrated Med. Res.</t>
@@ -1969,10 +1969,10 @@
     <t>Int. J. Interdisciplinary Multidisciplinary Stud.</t>
   </si>
   <si>
-    <t>Int. J. Interdisciplinary Res. Science, Society Cult.</t>
-  </si>
-  <si>
-    <t>Int. J. Interdisciplinary Scientific Res.</t>
+    <t>Int. J. Interdisciplinary Res. Science, Soc. Cult.</t>
+  </si>
+  <si>
+    <t>Int. J. Interdisciplinary Sci. Res.</t>
   </si>
   <si>
     <t>Int. J. Inventions Pharmaceutical Sci.</t>
@@ -2023,19 +2023,19 @@
     <t>Int. J. Learning, Teaching Educ. Res.</t>
   </si>
   <si>
-    <t>Int. J. Liberal Arts &amp; Social Sci. [last word appears “Sciences”]</t>
+    <t>Int. J. Liberal Arts &amp; Soc. Sci. [last word appears “Sciences”]</t>
   </si>
   <si>
     <t>Int. J. Life science Pharma Res.</t>
   </si>
   <si>
-    <t>Int. J. Life Sci. Biotechnology Pharma Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Life-Sciences Scientific Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Linguistics, Social Natural Sci.</t>
+    <t>Int. J. Life Sci. Biotechnol. Pharma Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Life-Sciences Sci. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Linguistics, Soc. Natural Sci.</t>
   </si>
   <si>
     <t>Int. J. Livestock Res.</t>
@@ -2053,10 +2053,10 @@
     <t>Int. J. Manage. Res.</t>
   </si>
   <si>
-    <t>Int. J. Manage. Social Sci. Res. Rev.</t>
-  </si>
-  <si>
-    <t>Int. J. Management, Econ. Social Sci.</t>
+    <t>Int. J. Manage. Soc. Sci. Res. Rev.</t>
+  </si>
+  <si>
+    <t>Int. J. Management, Econ. Soc. Sci.</t>
   </si>
   <si>
     <t>Int. J. Manage. Res. Bus. Strategy</t>
@@ -2074,7 +2074,7 @@
     <t>Int. J. Math. Res. &amp; Sci.</t>
   </si>
   <si>
-    <t>Int. J. Math. Sci. &amp; Applications</t>
+    <t>Int. J. Math. Sci. &amp; Appl.</t>
   </si>
   <si>
     <t>Int. J. Math. And Comput. Res.</t>
@@ -2083,22 +2083,22 @@
     <t>Int. J. Math. Soft Comput.</t>
   </si>
   <si>
-    <t>Int. J. Math. Statistics Invention</t>
+    <t>Int. J. Math. Stat. Invention</t>
   </si>
   <si>
     <t>Int. J. Mechanical Eng. Inf. Technol. (IJMEIT</t>
   </si>
   <si>
-    <t>Int. J. Med. Health Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Of Med. Health Sci.</t>
+    <t>Int. J. Med. Heal. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Of Med. Heal. Sci.</t>
   </si>
   <si>
     <t>Int. J. Med. Res.</t>
   </si>
   <si>
-    <t>Int. J. Med. Res. &amp; Health Sci.</t>
+    <t>Int. J. Med. Res. &amp; Heal. Sci.</t>
   </si>
   <si>
     <t>Int. J. Med. Res. &amp; Rev.</t>
@@ -2113,13 +2113,13 @@
     <t>Int. J. Med. Sci. Educ.</t>
   </si>
   <si>
-    <t>Int. J. Med. Sci. Public Health</t>
+    <t>Int. J. Med. Sci. Public Heal.</t>
   </si>
   <si>
     <t>Int. J. Med. Sci. Res. Pract.</t>
   </si>
   <si>
-    <t>Int. J. Med. Sci. Health Care</t>
+    <t>Int. J. Med. Sci. Heal. Care</t>
   </si>
   <si>
     <t>Int. J. Med. Students</t>
@@ -2146,16 +2146,16 @@
     <t>Int. J. Mosquito Res.</t>
   </si>
   <si>
-    <t>Int. J. Multidisciplinary Current Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Multidisciplinary Scientific Emerg. Res.</t>
+    <t>Int. J. Multidisciplinary Curr. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Multidisciplinary Sci. Emerg. Res.</t>
   </si>
   <si>
     <t>Int. J. Multidisciplinary Educ. Res.</t>
   </si>
   <si>
-    <t>Int. J. Multidisciplinary Health Sci.</t>
+    <t>Int. J. Multidisciplinary Heal. Sci.</t>
   </si>
   <si>
     <t>Int. J. Multidisciplinary Res. Develop.</t>
@@ -2200,13 +2200,13 @@
     <t>Int. J. Novel Trends Pharmaceutical Sci.</t>
   </si>
   <si>
-    <t>Int. J. Nursing</t>
+    <t>Int. J. Nsg.</t>
   </si>
   <si>
     <t>Int. J. Obstetrics Gynaecology Res.</t>
   </si>
   <si>
-    <t>Int. J. Oral Health Med. Res.</t>
+    <t>Int. J. Oral Heal. Med. Res.</t>
   </si>
   <si>
     <t>Int. J. Oncology Sci.</t>
@@ -2239,10 +2239,10 @@
     <t>Int. J. Pharmaceutical Phytopharmacological Res.</t>
   </si>
   <si>
-    <t>Int. J. Pharmaceutical Quality Assurance Pharmaceutical Analysis</t>
-  </si>
-  <si>
-    <t>Int. J. Pharmaceutical Res. Applications</t>
+    <t>Int. J. Pharmaceutical Qual. Assurance Pharmaceutical Anal.</t>
+  </si>
+  <si>
+    <t>Int. J. Pharmaceutical Res. Appl.</t>
   </si>
   <si>
     <t>Int. J. Pharmaceutical Res. Bioscience</t>
@@ -2269,7 +2269,7 @@
     <t>Int. J. Pharmaceutical Sci. Rev. Res.</t>
   </si>
   <si>
-    <t>Int. J. Pharmaceuticals Health Care Res.</t>
+    <t>Int. J. Pharmaceuticals Heal. Care Res.</t>
   </si>
   <si>
     <t>Int. J. Pharmacognosy</t>
@@ -2296,7 +2296,7 @@
     <t>Int. J. Pharmacy Technol.</t>
   </si>
   <si>
-    <t>Int. J. Physical Education, Sports Health</t>
+    <t>Int. J. Physical Education, Sports Heal.</t>
   </si>
   <si>
     <t>Int. J. Physiotherapy</t>
@@ -2308,7 +2308,7 @@
     <t>Int. J. Power Electron. Eng.</t>
   </si>
   <si>
-    <t>Int. J. Precious Eng. Res. Applications</t>
+    <t>Int. J. Precious Eng. Res. Appl.</t>
   </si>
   <si>
     <t>Int. J. Printing, Packag. &amp; Allied Sci.</t>
@@ -2344,7 +2344,7 @@
     <t>Int. J. Recent Res. Science, Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Recent Scientific Res.</t>
+    <t>Int. J. Recent Sci. Res.</t>
   </si>
   <si>
     <t>Int. J. Recent Surgical Med. Sci.</t>
@@ -2359,13 +2359,13 @@
     <t>Int. J. Recent Trends Eng. &amp; Res.</t>
   </si>
   <si>
-    <t>Int. J. Remote Sens. Geoscience</t>
+    <t>Int. J. Remote Sens. Geosci.</t>
   </si>
   <si>
     <t>Int. J. Renewable Energy Res.</t>
   </si>
   <si>
-    <t>Int. J. Res. Current Develop.</t>
+    <t>Int. J. Res. Curr. Develop.</t>
   </si>
   <si>
     <t>Int. J. Res. Develop. Pharmacy &amp; Life Sci.</t>
@@ -2383,7 +2383,7 @@
     <t>Int. J. Res. Sci. Publication</t>
   </si>
   <si>
-    <t>Int. J. Res. Cult. Society</t>
+    <t>Int. J. Res. Cult. Soc.</t>
   </si>
   <si>
     <t>Int. J. Res. Develop.</t>
@@ -2428,7 +2428,7 @@
     <t>Int. J. Res. Educ. Sci.</t>
   </si>
   <si>
-    <t>Int. J. Res. Educ. Social Sci.</t>
+    <t>Int. J. Res. Educ. Soc. Sci.</t>
   </si>
   <si>
     <t>Int. J. Res. Electron. &amp; Commun. Technol.</t>
@@ -2443,7 +2443,7 @@
     <t>Int. J. Res. Eng. Technol.</t>
   </si>
   <si>
-    <t>Int. J. Res. Humanities Social Sci.</t>
+    <t>Int. J. Res. Humanities Soc. Sci.</t>
   </si>
   <si>
     <t>Int. J. Res. Library Sci.</t>
@@ -2485,7 +2485,7 @@
     <t>Int. J. Res. Sci. Manage.</t>
   </si>
   <si>
-    <t>Int. J. Rev. Appl. Social Sci.</t>
+    <t>Int. J. Rev. Appl. Soc. Sci.</t>
   </si>
   <si>
     <t>Int. J. Rev. Life Sci. Also: Hijacked version</t>
@@ -2506,7 +2506,7 @@
     <t>Int. J. Sci. &amp; Eng. Develop. Res.</t>
   </si>
   <si>
-    <t>Int. J. Sci. Eng. Applications</t>
+    <t>Int. J. Sci. Eng. Appl.</t>
   </si>
   <si>
     <t>Int. J. Sci. Eng. Investigations</t>
@@ -2539,7 +2539,7 @@
     <t>Int. J. Science, Eng. Technol. Res.</t>
   </si>
   <si>
-    <t>Int. J. Sci. Environment Technol.</t>
+    <t>Int. J. Sci. Environ. Technol.</t>
   </si>
   <si>
     <t>Int. J. Sci. Innovations Discoveries</t>
@@ -2557,82 +2557,79 @@
     <t>Int. J. Sci. Appl. Res.</t>
   </si>
   <si>
-    <t>Int. J. Scientific &amp; Technol. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Eng. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Publications</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Tech. Adv.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Eng. Appl. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Eng. Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Eng. Technol. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Prog. &amp; Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. &amp; Manage. Stud.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Appl.</t>
-  </si>
-  <si>
-    <t>Int. J. Of Scientific Res. And Educ.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Eng. Trends</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Innov. Technol.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Manage.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Educ.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Res. Inf. Syst. Eng.</t>
-  </si>
-  <si>
-    <t>Int. J. Scientific Study</t>
+    <t>Int. J. Sci. &amp; Technol. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Eng. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Publications</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Tech. Adv.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Eng. Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Eng. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Eng. Technol. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Prog. &amp; Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. &amp; Manage. Stud.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Appl.</t>
+  </si>
+  <si>
+    <t>Int. J. Of Sci. Res. And Educ.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Eng. Trends</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Innov. Technol.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Manage.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Educ.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Res. Inf. Syst. Eng.</t>
+  </si>
+  <si>
+    <t>Int. J. Sci. Study</t>
   </si>
   <si>
     <t>Int. J. Signal Process. Syst.</t>
   </si>
   <si>
-    <t>The Int. J. Social Appl. Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Social Sci. &amp; Econ. Res.</t>
-  </si>
-  <si>
-    <t>Int. J. Social Sci. Humanity</t>
-  </si>
-  <si>
-    <t>The Int. J. Social Sci.</t>
-  </si>
-  <si>
-    <t>Int. J. Social Sci. Educ.</t>
-  </si>
-  <si>
-    <t>Int. J. Social Sci. Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Int. J. Society Technol.</t>
+    <t>The Int. J. Soc. Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Soc. Sci. &amp; Econ. Res.</t>
+  </si>
+  <si>
+    <t>Int. J. Soc. Sci. Humanity</t>
+  </si>
+  <si>
+    <t>The Int. J. Soc. Sci.</t>
+  </si>
+  <si>
+    <t>Int. J. Soc. Sci. Educ.</t>
+  </si>
+  <si>
+    <t>Int. J. Soc. Sci. Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Int. J. Soc. Technol.</t>
   </si>
   <si>
     <t>Int. J. Society, Cult. &amp; Language</t>
@@ -2650,7 +2647,7 @@
     <t>Int. J. Teacher Educ. Res.</t>
   </si>
   <si>
-    <t>Int. J. Tech. Res. Applications</t>
+    <t>Int. J. Tech. Res. Appl.</t>
   </si>
   <si>
     <t>Int. J. Tech. Res. Innovation</t>
@@ -2668,7 +2665,7 @@
     <t>Int. J. Technology, Manage. Humanities</t>
   </si>
   <si>
-    <t>Int. J. Therapeutic Applications</t>
+    <t>Int. J. Therapeutic Appl.</t>
   </si>
   <si>
     <t>Int. J. Toxicological Pharmacological Res.</t>
@@ -2710,22 +2707,22 @@
     <t>Int. J. Online Humanities</t>
   </si>
   <si>
-    <t>Int. Lett. Chemistry, Phys. Astronomy</t>
+    <t>Int. Lett. Chemistry, Phys. Astron.</t>
   </si>
   <si>
     <t>Int. Lett. Natural Sci.</t>
   </si>
   <si>
-    <t>Int. Lett. Social Humanistic Sci.</t>
+    <t>Int. Lett. Soc. Humanistic Sci.</t>
   </si>
   <si>
     <t>Int. Multidisciplinary Res. J.</t>
   </si>
   <si>
-    <t>Int. Multispeciality J. Health</t>
-  </si>
-  <si>
-    <t>Int. Online J. Primary Educ.</t>
+    <t>Int. Multispeciality J. Heal.</t>
+  </si>
+  <si>
+    <t>Int. Online J. Prim. Educ.</t>
   </si>
   <si>
     <t>Int. Proc. Chemical, Biol. Environ. Eng.</t>
@@ -2782,19 +2779,19 @@
     <t>Int. Rev. Manage. Bus. Res.</t>
   </si>
   <si>
-    <t>Int. Rev. Social Sci. Humanities</t>
+    <t>Int. Rev. Soc. Sci. Humanities</t>
   </si>
   <si>
     <t>Int. Sci. Investigation J.</t>
   </si>
   <si>
-    <t>Int. Scientific Investigations Проблемы и перспективы современной науки</t>
-  </si>
-  <si>
-    <t>Int. Scientific J. Theor. &amp; Appl. Sci.</t>
-  </si>
-  <si>
-    <t>Int. Scientific Res. J.</t>
+    <t>Int. Sci. Investigations Проблемы и перспективы современной науки</t>
+  </si>
+  <si>
+    <t>Int. Sci. J. Theor. &amp; Appl. Sci.</t>
+  </si>
+  <si>
+    <t>Int. Sci. Res. J.</t>
   </si>
   <si>
     <t>Int. Tech. Sci. J.</t>
@@ -2830,7 +2827,7 @@
     <t>J. Francophone Cas Clinique</t>
   </si>
   <si>
-    <t>The J. Acad. Social Sci. Stud.</t>
+    <t>The J. Acad. Soc. Sci. Stud.</t>
   </si>
   <si>
     <t>J. Adv. Agricultural Technol.</t>
@@ -2857,7 +2854,7 @@
     <t>J. Adv. Sci. Technol.</t>
   </si>
   <si>
-    <t>J. Adv. Social Sci. Humanities</t>
+    <t>J. Adv. Soc. Sci. Humanities</t>
   </si>
   <si>
     <t>J. Agriculture, Forestry &amp; Environ. Sci.</t>
@@ -2872,13 +2869,13 @@
     <t>The J. American Bus. Review, Cambridge</t>
   </si>
   <si>
-    <t>J. American Physicians Surgeons</t>
+    <t>J. American Physicians Surg.</t>
   </si>
   <si>
     <t>J. Anaesthesia Critical Care Case Rep.</t>
   </si>
   <si>
-    <t>J. Analytical Res.</t>
+    <t>J. Anal. Res.</t>
   </si>
   <si>
     <t>J. Anim. Plant Sci.</t>
@@ -2890,7 +2887,7 @@
     <t>J. Applicable Chem.</t>
   </si>
   <si>
-    <t>J. Appl. Biology &amp; Biotechnology</t>
+    <t>J. Appl. Biol. &amp; Biotechnol.</t>
   </si>
   <si>
     <t>J. Appl. Econ. Bus.</t>
@@ -2926,7 +2923,7 @@
     <t>J. Basic Environ. Sci.</t>
   </si>
   <si>
-    <t>J. Behav. Health</t>
+    <t>J. Behav. Heal.</t>
   </si>
   <si>
     <t>J. Behav. Sci. Asia</t>
@@ -2935,7 +2932,7 @@
     <t>J. Bio Innovation</t>
   </si>
   <si>
-    <t>J. Biol. Scientific Opinion</t>
+    <t>J. Biol. Sci. Opinion</t>
   </si>
   <si>
     <t>J. Biol. Sci. Med.</t>
@@ -2956,7 +2953,7 @@
     <t>J. Bus. Manage. Econ. Stud.</t>
   </si>
   <si>
-    <t>J. Bus. Stud. Quarterly</t>
+    <t>J. Bus. Stud. Q.</t>
   </si>
   <si>
     <t>J. Chem. Pharmaceutical Res.</t>
@@ -2971,7 +2968,7 @@
     <t>J. Clean Energy Technol.</t>
   </si>
   <si>
-    <t>J. Clin. Analytical Med.</t>
+    <t>J. Clin. Anal. Med.</t>
   </si>
   <si>
     <t>J. Commun. Technology, Electron. Comput. Sci.</t>
@@ -2998,13 +2995,13 @@
     <t>J. Cosmology</t>
   </si>
   <si>
-    <t>J. Current Pharma Res.</t>
-  </si>
-  <si>
-    <t>J. Current Res. Sci.</t>
-  </si>
-  <si>
-    <t>J. Current Trends Big Data Analytics</t>
+    <t>J. Curr. Pharma Res.</t>
+  </si>
+  <si>
+    <t>J. Curr. Res. Sci.</t>
+  </si>
+  <si>
+    <t>J. Curr. Trends Big Data Analytics</t>
   </si>
   <si>
     <t>J. Drug Discovery Therapeutics</t>
@@ -3022,7 +3019,7 @@
     <t>J. Economics, Bus. Manage.</t>
   </si>
   <si>
-    <t>J. Educ. Social Sci.</t>
+    <t>J. Educ. Soc. Sci.</t>
   </si>
   <si>
     <t>J. Educ. Sociol.</t>
@@ -3052,19 +3049,19 @@
     <t>J. Entomology Zoology Stud.</t>
   </si>
   <si>
-    <t>J. Environment Life Sci.</t>
+    <t>J. Environ. Life Sci.</t>
   </si>
   <si>
     <t>J. Environ. Occup. Sci.</t>
   </si>
   <si>
-    <t>J. Environ. Biology</t>
+    <t>J. Environ. Biol.</t>
   </si>
   <si>
     <t>J. Environ. Hydrology</t>
   </si>
   <si>
-    <t>J. Environ. Nanotechnology</t>
+    <t>J. Environ. Nanotechnol.</t>
   </si>
   <si>
     <t>J. Environ. Res. Develop.</t>
@@ -3076,25 +3073,25 @@
     <t>J. Evidence Based Med. Healthcare</t>
   </si>
   <si>
-    <t>J. Evolution Res. Dermatol. Venerology</t>
-  </si>
-  <si>
-    <t>J. Evolution Res. Human Physiol.</t>
-  </si>
-  <si>
-    <t>J. Evolution Res. Med. Microbiology</t>
-  </si>
-  <si>
-    <t>J. Evolution Res. Med. Pharmacology</t>
-  </si>
-  <si>
-    <t>J. Evolution Res. Paediatrics Neonatology</t>
+    <t>J. Evol. Res. Dermatol. Venerology</t>
+  </si>
+  <si>
+    <t>J. Evol. Res. Hum. Physiol.</t>
+  </si>
+  <si>
+    <t>J. Evol. Res. Med. Microbiol.</t>
+  </si>
+  <si>
+    <t>J. Evol. Res. Med. Pharmacology</t>
+  </si>
+  <si>
+    <t>J. Evol. Res. Paediatrics Neonatology</t>
   </si>
   <si>
     <t>J. Excellence Comput. Sci. Eng.</t>
   </si>
   <si>
-    <t>J. Exp. Biology Agricultural Sci.</t>
+    <t>J. Exp. Biol. Agricultural Sci.</t>
   </si>
   <si>
     <t>J. Exp. Sci.</t>
@@ -3103,7 +3100,7 @@
     <t>J. Financial Educ.</t>
   </si>
   <si>
-    <t>J. Food, Agriculture Environment</t>
+    <t>J. Food, Agriculture Environ.</t>
   </si>
   <si>
     <t>J. Fundam. Appl. Sci.</t>
@@ -3121,13 +3118,13 @@
     <t>J. Global Bus. Manage.</t>
   </si>
   <si>
-    <t>J. Global Innovations Agricultural Social Sci.</t>
+    <t>J. Global Innovations Agricultural Soc. Sci.</t>
   </si>
   <si>
     <t>J. Global Res. Comput. Sci.</t>
   </si>
   <si>
-    <t>J. Health Econ. Outcomes Res.</t>
+    <t>J. Heal. Econ. Outcomes Res.</t>
   </si>
   <si>
     <t>J. Health, Sport Tourism</t>
@@ -3136,13 +3133,13 @@
     <t>J. HerbMed Pharmacology</t>
   </si>
   <si>
-    <t>J. Human Resource Adult Learn.</t>
+    <t>J. Hum. Resource Adult Learn.</t>
   </si>
   <si>
     <t>J. Humanities Cult. Stud. R&amp;D</t>
   </si>
   <si>
-    <t>J. Hydrology Environment Res.</t>
+    <t>J. Hydrology Environ. Res.</t>
   </si>
   <si>
     <t>J. IMAB</t>
@@ -3160,7 +3157,7 @@
     <t>J. Innovations Pharmaceuticals Biol. Sci.</t>
   </si>
   <si>
-    <t>J. Innov. Biology</t>
+    <t>J. Innov. Biol.</t>
   </si>
   <si>
     <t>J. Innov. Eng.</t>
@@ -3190,7 +3187,7 @@
     <t>The J. Internet Banking Commerce</t>
   </si>
   <si>
-    <t>J. Investigational Biochemistry</t>
+    <t>J. Investigational Biochem.</t>
   </si>
   <si>
     <t>J. Knowl. Management, Econ. Inf. Technol.</t>
@@ -3256,7 +3253,7 @@
     <t>J. Middle East Appl. Sci. Technol.</t>
   </si>
   <si>
-    <t>J. Microbiology Antimicrobial Agents</t>
+    <t>J. Microbiol. Antimicrobial Agents</t>
   </si>
   <si>
     <t>J. Modern Sci. &amp; Heritage</t>
@@ -3274,7 +3271,7 @@
     <t>J. Multidisciplinary Eng. Sci. Stud.</t>
   </si>
   <si>
-    <t>J. Nature Sci.</t>
+    <t>J. Nat. Sci.</t>
   </si>
   <si>
     <t>J. Neurol. &amp; Neuromedicine</t>
@@ -3283,10 +3280,10 @@
     <t>J. New Sci.</t>
   </si>
   <si>
-    <t>The J. Nonlinear Sci. Applications</t>
-  </si>
-  <si>
-    <t>J. Pharmaceutical Bioanalytical Sci.</t>
+    <t>The J. Nonlinear Sci. Appl.</t>
+  </si>
+  <si>
+    <t>J. Pharmaceutical Bioanal. Sci.</t>
   </si>
   <si>
     <t>J. Pharmaceutical Biol. Sci.</t>
@@ -3295,7 +3292,7 @@
     <t>J. Pharmaceutical Biomed. Sci.</t>
   </si>
   <si>
-    <t>The J. Pharmaceutical Scientific Innovation</t>
+    <t>The J. Pharmaceutical Sci. Innovation</t>
   </si>
   <si>
     <t>J. Pharmaceutical, Chem. Biol. Sci.</t>
@@ -3316,7 +3313,7 @@
     <t>J. Physical Therapy Sci.</t>
   </si>
   <si>
-    <t>J. Psychol. Theology</t>
+    <t>J. Psychol. Theol.</t>
   </si>
   <si>
     <t>J. Postharvest Technol.</t>
@@ -3334,25 +3331,25 @@
     <t>J. Res. Anaesthesology Pain Med.</t>
   </si>
   <si>
-    <t>J. Res. Biology</t>
+    <t>J. Res. Biol.</t>
   </si>
   <si>
     <t>J. Res. Comput. Technol.</t>
   </si>
   <si>
-    <t>J. Res. Forensic Med. Toxicology</t>
-  </si>
-  <si>
-    <t>J. Res. General Surgery Laparoscopy</t>
-  </si>
-  <si>
-    <t>J. Res. Human Anatomy Embryology</t>
+    <t>J. Res. Forensic Med. Toxicol.</t>
+  </si>
+  <si>
+    <t>J. Res. General Surg. Laparoscopy</t>
+  </si>
+  <si>
+    <t>J. Res. Hum. Anatomy Embryology</t>
   </si>
   <si>
     <t>J. Res. Obstetrics, Gynaecology Infertility</t>
   </si>
   <si>
-    <t>J. Res. Preventive Social Med.</t>
+    <t>J. Res. Preventive Soc. Med.</t>
   </si>
   <si>
     <t>J. Res. Psychiatry Behavioural Sci.</t>
@@ -3361,13 +3358,13 @@
     <t>J. Res. Radiodiagnosis, Teleradiology Imag.</t>
   </si>
   <si>
-    <t>J. Res. Traditional Med.</t>
+    <t>J. Res. Trad. Med.</t>
   </si>
   <si>
     <t>J. Sci.</t>
   </si>
   <si>
-    <t>J. Sci. Its Applications</t>
+    <t>J. Sci. Its Appl.</t>
   </si>
   <si>
     <t>J. Sci. Technol. Adv.</t>
@@ -3376,25 +3373,25 @@
     <t>J. Sci. Editing</t>
   </si>
   <si>
-    <t>J. Scientific Eng. Res.</t>
-  </si>
-  <si>
-    <t>J. Scientific Lett.</t>
-  </si>
-  <si>
-    <t>J. Scientific Res. Develop.</t>
-  </si>
-  <si>
-    <t>J. Scientific Res. Pharmacy</t>
-  </si>
-  <si>
-    <t>J. Scientific Res. Physical &amp; Math. Sci.</t>
-  </si>
-  <si>
-    <t>J. Scientific Theory Methods</t>
-  </si>
-  <si>
-    <t>J. Social Issues &amp; Humanities</t>
+    <t>J. Sci. Eng. Res.</t>
+  </si>
+  <si>
+    <t>J. Sci. Lett.</t>
+  </si>
+  <si>
+    <t>J. Sci. Res. Develop.</t>
+  </si>
+  <si>
+    <t>J. Sci. Res. Pharmacy</t>
+  </si>
+  <si>
+    <t>J. Sci. Res. Physical &amp; Math. Sci.</t>
+  </si>
+  <si>
+    <t>J. Sci. Theor. Methods</t>
+  </si>
+  <si>
+    <t>J. Soc. Issues &amp; Humanities</t>
   </si>
   <si>
     <t>J. Softw.</t>
@@ -3403,10 +3400,10 @@
     <t>J. Spectroscopy Molecular Phys.</t>
   </si>
   <si>
-    <t>J. Stud. Social Sci. Humanities</t>
-  </si>
-  <si>
-    <t>J. Surgery &amp; Patient Care</t>
+    <t>J. Stud. Soc. Sci. Humanities</t>
+  </si>
+  <si>
+    <t>J. Surg. &amp; Pt. Care</t>
   </si>
   <si>
     <t>J. Telecommunications</t>
@@ -3421,10 +3418,10 @@
     <t>J. Trends Develop. Machinery Associated Technol.</t>
   </si>
   <si>
-    <t>Jundishapur J. Health Sci.</t>
-  </si>
-  <si>
-    <t>Junior Scientific Researcher</t>
+    <t>Jundishapur J. Heal. Sci.</t>
+  </si>
+  <si>
+    <t>Junior Sci. Researcher</t>
   </si>
   <si>
     <t>Kashmir Econ. Rev.</t>
@@ -3433,7 +3430,7 @@
     <t>LangLit</t>
   </si>
   <si>
-    <t>Lecture Notes Softw. Eng.</t>
+    <t>Lect. Notes Softw. Eng.</t>
   </si>
   <si>
     <t>Legal Res. Develop.</t>
@@ -3457,7 +3454,7 @@
     <t>Malti: Int. Hindi e-Research J.</t>
   </si>
   <si>
-    <t>Math. Comput. Applications</t>
+    <t>Math. Comput. Appl.</t>
   </si>
   <si>
     <t>Mechanics, Mater. Sci. &amp; Eng. J.</t>
@@ -3493,7 +3490,7 @@
     <t>Modern J. Language Teaching Methods</t>
   </si>
   <si>
-    <t>Multidisciplinary Scientific Reviewer</t>
+    <t>Multidisciplinary Sci. Reviewer</t>
   </si>
   <si>
     <t>Munis Entomology &amp; Zoology</t>
@@ -3538,7 +3535,7 @@
     <t>Online J. Library &amp; Inf. Sci.</t>
   </si>
   <si>
-    <t>The Online J. New Horizons Educ.</t>
+    <t>The Online J. New Horiz. Educ.</t>
   </si>
   <si>
     <t>The Online J. Sci. Technol.</t>
@@ -3562,10 +3559,10 @@
     <t>Path Sci.</t>
   </si>
   <si>
-    <t>Pattern Recognition Phys.</t>
-  </si>
-  <si>
-    <t>People’s J. Scientific Res.</t>
+    <t>Pattern Recognit. Phys.</t>
+  </si>
+  <si>
+    <t>People’s J. Sci. Res.</t>
   </si>
   <si>
     <t>Pharma Innovation</t>
@@ -3613,7 +3610,7 @@
     <t>PunarnaV</t>
   </si>
   <si>
-    <t>Quarterly Phys. Rev.</t>
+    <t>Q. Phys. Rev.</t>
   </si>
   <si>
     <t>Reef Resources Assessment Manage. Tech. Paper</t>
@@ -3640,10 +3637,10 @@
     <t>Res. Directions: Int. Multidisciplinary Res. J. (Research Directions J.</t>
   </si>
   <si>
-    <t>Res. Biotechnology</t>
-  </si>
-  <si>
-    <t>Res. Pharmacy Health Sci.</t>
+    <t>Res. Biotechnol.</t>
+  </si>
+  <si>
+    <t>Res. Pharmacy Heal. Sci.</t>
   </si>
   <si>
     <t>Res. Innovator</t>
@@ -3715,7 +3712,7 @@
     <t>Scholars World- Int. Refereed Multidisciplinary J. Of Contemporary Res.</t>
   </si>
   <si>
-    <t>Sci. Eng. Applications</t>
+    <t>Sci. Eng. Appl.</t>
   </si>
   <si>
     <t>Sci. Int.</t>
@@ -3733,28 +3730,28 @@
     <t>Sci. Reuters</t>
   </si>
   <si>
-    <t>Scientific Light</t>
-  </si>
-  <si>
-    <t>Scientific Res. J.</t>
-  </si>
-  <si>
-    <t>Scientific Res. J. India</t>
-  </si>
-  <si>
-    <t>Scientific Researches</t>
-  </si>
-  <si>
-    <t>Scientific Trans. Environment Technovation</t>
-  </si>
-  <si>
-    <t>Scientific World</t>
+    <t>Sci. Light</t>
+  </si>
+  <si>
+    <t>Sci. Res. J.</t>
+  </si>
+  <si>
+    <t>Sci. Res. J. India</t>
+  </si>
+  <si>
+    <t>Sci. Researches</t>
+  </si>
+  <si>
+    <t>Sci. Trans. Environ. Technovation</t>
+  </si>
+  <si>
+    <t>Sci. World</t>
   </si>
   <si>
     <t>The Scitech J.</t>
   </si>
   <si>
-    <t>Scottish J. Arts, Social Sci. Scientific Stud.</t>
+    <t>Scottish J. Arts, Soc. Sci. Sci. Stud.</t>
   </si>
   <si>
     <t>SCRO Annu. Report J.</t>
@@ -3778,7 +3775,7 @@
     <t>Smart Nanosystems Eng. Med.</t>
   </si>
   <si>
-    <t>South Asian J. Food Technol. Environment</t>
+    <t>South Asian J. Food Technol. Environ.</t>
   </si>
   <si>
     <t>South Asian J. Math.</t>
@@ -3796,10 +3793,10 @@
     <t>Sport Sci.</t>
   </si>
   <si>
-    <t>Swedish J. Scientific Res.</t>
-  </si>
-  <si>
-    <t>Swiss J. Res. Bus. Social Sci.</t>
+    <t>Swedish J. Sci. Res.</t>
+  </si>
+  <si>
+    <t>Swiss J. Res. Bus. Soc. Sci.</t>
   </si>
   <si>
     <t>Tactful Manage. Res. J.</t>
@@ -3814,7 +3811,7 @@
     <t>Tehnički vjesnik = Tech. Gazette</t>
   </si>
   <si>
-    <t>Translational Med. Biotechnology</t>
+    <t>Trans. Med. Biotechnol.</t>
   </si>
   <si>
     <t>Transnational J. Sci. Technol.</t>
@@ -3829,7 +3826,7 @@
     <t>Tropical Plant Res.</t>
   </si>
   <si>
-    <t>Turkish J. Scientific Res.</t>
+    <t>Turkish J. Sci. Res.</t>
   </si>
   <si>
     <t>Turkish Online J. Educ. Technol.</t>
@@ -3907,7 +3904,7 @@
     <t>World Med. Student J.</t>
   </si>
   <si>
-    <t>World Scientific News</t>
+    <t>World Sci. News</t>
   </si>
   <si>
     <t>World Wide J. Multidisciplinary Res. Develop.</t>
@@ -8525,2277 +8522,2277 @@
     </row>
     <row r="856" spans="1:1">
       <c r="A856" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
   </sheetData>
